--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="46">
   <si>
     <t>index</t>
   </si>
@@ -141,6 +141,30 @@
   <si>
     <t>*mean of 100 iterations, Spearman-Brown corrected at each iteration</t>
   </si>
+  <si>
+    <t>PROC_SPEED</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>vis_RT_med</t>
+  </si>
+  <si>
+    <t>ac_RT_med</t>
+  </si>
+  <si>
+    <t>vis_dec_score</t>
+  </si>
+  <si>
+    <t>vis_dec_RT_med</t>
+  </si>
+  <si>
+    <t>ac_dec_score</t>
+  </si>
+  <si>
+    <t>ac_dec_RT_med</t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +204,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,12 +251,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -507,12 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1021"/>
+  <dimension ref="A1:F1027"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -540,130 +573,130 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2">
-        <v>0.68968296532168805</v>
+        <v>0.95984779258959596</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F65" si="0">IF(E2="","n.a.",IF(E2&lt;0.7,0,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
+        <f t="shared" ref="F2:F7" si="0">IF(E2="","n.a.",IF(E2&lt;0.7,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>0.79394920822215154</v>
+        <v>0.95845778644698576</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2">
-        <v>0.77482339944313938</v>
+        <v>0.18913879341141879</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="2">
-        <v>0.82687727403715194</v>
+        <v>0.95155498661897853</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>0.77521333153418281</v>
+        <v>8.7187395769721135E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="2">
-        <v>0.77715421241518079</v>
+        <v>0.67644676221297673</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,12 +707,17 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.68968296532168805</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="1">IF(E8="","n.a.",IF(E8&lt;0.7,0,1))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -690,12 +728,17 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.79394920822215154</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,12 +749,17 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.77482339944313938</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,12 +770,17 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.82687727403715194</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,12 +791,17 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.77521333153418281</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -754,27 +812,32 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.77715421241518079</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -783,20 +846,15 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.62855292840611876</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -804,20 +862,15 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.63777081364340005</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -825,20 +878,15 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.71050110990299897</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -846,20 +894,15 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.85457112827674131</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -867,20 +910,15 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.77727138967244924</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,20 +926,15 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.73030107410643075</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,12 +945,17 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.62855292840611876</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,12 +966,17 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.63777081364340005</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,12 +987,17 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.71050110990299897</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -960,12 +1008,17 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.85457112827674131</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -976,12 +1029,17 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.77727138967244924</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,12 +1050,17 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.73030107410643075</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,11 +1071,11 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -1021,20 +1084,15 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.88377151915230445</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1042,20 +1100,15 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.93138816423470216</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,20 +1116,15 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.90333788895638645</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,20 +1132,15 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.65745332040991855</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,20 +1148,15 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.6410009318145623</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,20 +1164,15 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.70600146265921526</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,12 +1183,17 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.88377151915230445</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,12 +1204,17 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.93138816423470216</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,12 +1225,17 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.90333788895638645</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1198,12 +1246,17 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.65745332040991855</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1214,12 +1267,17 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.6410009318145623</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1230,12 +1288,17 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.70600146265921526</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,11 +1309,11 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -1259,20 +1322,15 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.38163998557494</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1280,20 +1338,15 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.47021387639616358</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1301,20 +1354,15 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.38590122441754188</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,20 +1370,15 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.66693040978983731</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,20 +1386,15 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.4843387370556379</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,20 +1402,15 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.50032292418690938</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1388,12 +1421,17 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.38163998557494</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,12 +1442,17 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.47021387639616358</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,12 +1463,17 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.38590122441754188</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1433,19 +1481,19 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="2">
-        <v>0.69439297114564247</v>
+        <v>0.66693040978983731</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1454,20 +1502,20 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="2">
-        <v>0.73811715773359154</v>
+        <v>0.4843387370556379</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,20 +1523,20 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="2">
-        <v>0.70917552915408955</v>
+        <v>0.50032292418690938</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,20 +1544,15 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.75889511614818339</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,20 +1560,15 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.65720259675006976</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1538,20 +1576,15 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.62462961600986622</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>n.a.</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1562,12 +1595,17 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.69439297114564247</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1578,12 +1616,17 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.73811715773359154</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1594,67 +1637,141 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.70917552915408955</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="2"/>
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+      <c r="A59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.75889511614818339</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="2"/>
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.65720259675006976</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E61" s="2"/>
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>n.a.</v>
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.62462961600986622</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65" s="2"/>
       <c r="F65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" s="2"/>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F129" si="1">IF(E66="","n.a.",IF(E66&lt;0.7,0,1))</f>
+        <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -1696,413 +1813,413 @@
     <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" s="2"/>
       <c r="F72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F72:F135" si="2">IF(E72="","n.a.",IF(E72&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" s="2"/>
       <c r="F73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" s="2"/>
       <c r="F74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" s="2"/>
       <c r="F75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" s="2"/>
       <c r="F76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" s="2"/>
       <c r="F77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" s="2"/>
       <c r="F78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" s="2"/>
       <c r="F79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80" s="2"/>
       <c r="F80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="2"/>
       <c r="F81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="2"/>
       <c r="F82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83" s="2"/>
       <c r="F83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84" s="2"/>
       <c r="F84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85" s="2"/>
       <c r="F85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86" s="2"/>
       <c r="F86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87" s="2"/>
       <c r="F87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88" s="2"/>
       <c r="F88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89" s="2"/>
       <c r="F89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90" s="2"/>
       <c r="F90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
       <c r="F91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
       <c r="F92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
       <c r="F93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
       <c r="F94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
       <c r="F95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96" s="2"/>
       <c r="F96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
       <c r="F97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98" s="2"/>
       <c r="F98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99" s="2"/>
       <c r="F99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100" s="2"/>
       <c r="F100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101" s="2"/>
       <c r="F101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102" s="2"/>
       <c r="F102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103" s="2"/>
       <c r="F103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104" s="2"/>
       <c r="F104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105" s="2"/>
       <c r="F105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106" s="2"/>
       <c r="F106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107" s="2"/>
       <c r="F107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108" s="2"/>
       <c r="F108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109" s="2"/>
       <c r="F109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110" s="2"/>
       <c r="F110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111" s="2"/>
       <c r="F111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112" s="2"/>
       <c r="F112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E113" s="2"/>
       <c r="F113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E114" s="2"/>
       <c r="F114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E115" s="2"/>
       <c r="F115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E116" s="2"/>
       <c r="F116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E117" s="2"/>
       <c r="F117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E118" s="2"/>
       <c r="F118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E119" s="2"/>
       <c r="F119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E120" s="2"/>
       <c r="F120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E121" s="2"/>
       <c r="F121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E122" s="2"/>
       <c r="F122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E123" s="2"/>
       <c r="F123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E124" s="2"/>
       <c r="F124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E125" s="2"/>
       <c r="F125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E126" s="2"/>
       <c r="F126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E127" s="2"/>
       <c r="F127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E128" s="2"/>
       <c r="F128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E129" s="2"/>
       <c r="F129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E130" s="2"/>
       <c r="F130" t="str">
-        <f t="shared" ref="F130:F193" si="2">IF(E130="","n.a.",IF(E130&lt;0.7,0,1))</f>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -2144,413 +2261,413 @@
     <row r="136" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E136" s="2"/>
       <c r="F136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F136:F199" si="3">IF(E136="","n.a.",IF(E136&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E137" s="2"/>
       <c r="F137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E138" s="2"/>
       <c r="F138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E139" s="2"/>
       <c r="F139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E140" s="2"/>
       <c r="F140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E141" s="2"/>
       <c r="F141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E142" s="2"/>
       <c r="F142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E143" s="2"/>
       <c r="F143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E144" s="2"/>
       <c r="F144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145" s="2"/>
       <c r="F145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146" s="2"/>
       <c r="F146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147" s="2"/>
       <c r="F147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148" s="2"/>
       <c r="F148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149" s="2"/>
       <c r="F149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150" s="2"/>
       <c r="F150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E151" s="2"/>
       <c r="F151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E152" s="2"/>
       <c r="F152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E153" s="2"/>
       <c r="F153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E154" s="2"/>
       <c r="F154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E155" s="2"/>
       <c r="F155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E156" s="2"/>
       <c r="F156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E157" s="2"/>
       <c r="F157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E158" s="2"/>
       <c r="F158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E159" s="2"/>
       <c r="F159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E160" s="2"/>
       <c r="F160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E161" s="2"/>
       <c r="F161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E162" s="2"/>
       <c r="F162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="163" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E163" s="2"/>
       <c r="F163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="164" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E164" s="2"/>
       <c r="F164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="165" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E165" s="2"/>
       <c r="F165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="166" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E166" s="2"/>
       <c r="F166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="167" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E167" s="2"/>
       <c r="F167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="168" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E168" s="2"/>
       <c r="F168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="169" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E169" s="2"/>
       <c r="F169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="170" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E170" s="2"/>
       <c r="F170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="171" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E171" s="2"/>
       <c r="F171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="172" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E172" s="2"/>
       <c r="F172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="173" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E173" s="2"/>
       <c r="F173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="174" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E174" s="2"/>
       <c r="F174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="175" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E175" s="2"/>
       <c r="F175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="176" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E176" s="2"/>
       <c r="F176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="177" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E177" s="2"/>
       <c r="F177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="178" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E178" s="2"/>
       <c r="F178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="179" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E179" s="2"/>
       <c r="F179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="180" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E180" s="2"/>
       <c r="F180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="181" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E181" s="2"/>
       <c r="F181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="182" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E182" s="2"/>
       <c r="F182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="183" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E183" s="2"/>
       <c r="F183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="184" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E184" s="2"/>
       <c r="F184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="185" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E185" s="2"/>
       <c r="F185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="186" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E186" s="2"/>
       <c r="F186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="187" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E187" s="2"/>
       <c r="F187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="188" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E188" s="2"/>
       <c r="F188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="189" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E189" s="2"/>
       <c r="F189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E190" s="2"/>
       <c r="F190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E191" s="2"/>
       <c r="F191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="192" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E192" s="2"/>
       <c r="F192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="193" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E193" s="2"/>
       <c r="F193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="194" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E194" s="2"/>
       <c r="F194" t="str">
-        <f t="shared" ref="F194:F257" si="3">IF(E194="","n.a.",IF(E194&lt;0.7,0,1))</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -2592,413 +2709,413 @@
     <row r="200" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E200" s="2"/>
       <c r="F200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F200:F263" si="4">IF(E200="","n.a.",IF(E200&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="201" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E201" s="2"/>
       <c r="F201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="202" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E202" s="2"/>
       <c r="F202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="203" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E203" s="2"/>
       <c r="F203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="204" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E204" s="2"/>
       <c r="F204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="205" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E205" s="2"/>
       <c r="F205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="206" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E206" s="2"/>
       <c r="F206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="207" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E207" s="2"/>
       <c r="F207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="208" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E208" s="2"/>
       <c r="F208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="209" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E209" s="2"/>
       <c r="F209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="210" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E210" s="2"/>
       <c r="F210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="211" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E211" s="2"/>
       <c r="F211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="212" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E212" s="2"/>
       <c r="F212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="213" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E213" s="2"/>
       <c r="F213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="214" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E214" s="2"/>
       <c r="F214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="215" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E215" s="2"/>
       <c r="F215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="216" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E216" s="2"/>
       <c r="F216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="217" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E217" s="2"/>
       <c r="F217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="218" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E218" s="2"/>
       <c r="F218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="219" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E219" s="2"/>
       <c r="F219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="220" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E220" s="2"/>
       <c r="F220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="221" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E221" s="2"/>
       <c r="F221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="222" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E222" s="2"/>
       <c r="F222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="223" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E223" s="2"/>
       <c r="F223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="224" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E224" s="2"/>
       <c r="F224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="225" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E225" s="2"/>
       <c r="F225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="226" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E226" s="2"/>
       <c r="F226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="227" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E227" s="2"/>
       <c r="F227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="228" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E228" s="2"/>
       <c r="F228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="229" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E229" s="2"/>
       <c r="F229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="230" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E230" s="2"/>
       <c r="F230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="231" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E231" s="2"/>
       <c r="F231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="232" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E232" s="2"/>
       <c r="F232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="233" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E233" s="2"/>
       <c r="F233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="234" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E234" s="2"/>
       <c r="F234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="235" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E235" s="2"/>
       <c r="F235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="236" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E236" s="2"/>
       <c r="F236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="237" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E237" s="2"/>
       <c r="F237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="238" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E238" s="2"/>
       <c r="F238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="239" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E239" s="2"/>
       <c r="F239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="240" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E240" s="2"/>
       <c r="F240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="241" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E241" s="2"/>
       <c r="F241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="242" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E242" s="2"/>
       <c r="F242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="243" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E243" s="2"/>
       <c r="F243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="244" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E244" s="2"/>
       <c r="F244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="245" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E245" s="2"/>
       <c r="F245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="246" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E246" s="2"/>
       <c r="F246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="247" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E247" s="2"/>
       <c r="F247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="248" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E248" s="2"/>
       <c r="F248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="249" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E249" s="2"/>
       <c r="F249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="250" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E250" s="2"/>
       <c r="F250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="251" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E251" s="2"/>
       <c r="F251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="252" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E252" s="2"/>
       <c r="F252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="253" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E253" s="2"/>
       <c r="F253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="254" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E254" s="2"/>
       <c r="F254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="255" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E255" s="2"/>
       <c r="F255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="256" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E256" s="2"/>
       <c r="F256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="257" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E257" s="2"/>
       <c r="F257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="258" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E258" s="2"/>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F321" si="4">IF(E258="","n.a.",IF(E258&lt;0.7,0,1))</f>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -3040,413 +3157,413 @@
     <row r="264" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E264" s="2"/>
       <c r="F264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F264:F327" si="5">IF(E264="","n.a.",IF(E264&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="265" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E265" s="2"/>
       <c r="F265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="266" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E266" s="2"/>
       <c r="F266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="267" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E267" s="2"/>
       <c r="F267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="268" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E268" s="2"/>
       <c r="F268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="269" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E269" s="2"/>
       <c r="F269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="270" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E270" s="2"/>
       <c r="F270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="271" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E271" s="2"/>
       <c r="F271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="272" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E272" s="2"/>
       <c r="F272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="273" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E273" s="2"/>
       <c r="F273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="274" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E274" s="2"/>
       <c r="F274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="275" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E275" s="2"/>
       <c r="F275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="276" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E276" s="2"/>
       <c r="F276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="277" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E277" s="2"/>
       <c r="F277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="278" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E278" s="2"/>
       <c r="F278" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="279" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E279" s="2"/>
       <c r="F279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="280" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E280" s="2"/>
       <c r="F280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="281" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E281" s="2"/>
       <c r="F281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="282" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E282" s="2"/>
       <c r="F282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="283" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E283" s="2"/>
       <c r="F283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="284" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E284" s="2"/>
       <c r="F284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="285" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E285" s="2"/>
       <c r="F285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="286" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E286" s="2"/>
       <c r="F286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="287" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E287" s="2"/>
       <c r="F287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="288" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E288" s="2"/>
       <c r="F288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E289" s="2"/>
       <c r="F289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="290" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E290" s="2"/>
       <c r="F290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E291" s="2"/>
       <c r="F291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E292" s="2"/>
       <c r="F292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="293" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E293" s="2"/>
       <c r="F293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="294" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E294" s="2"/>
       <c r="F294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="295" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E295" s="2"/>
       <c r="F295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="296" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E296" s="2"/>
       <c r="F296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E297" s="2"/>
       <c r="F297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="298" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E298" s="2"/>
       <c r="F298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="299" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E299" s="2"/>
       <c r="F299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="300" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E300" s="2"/>
       <c r="F300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="301" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E301" s="2"/>
       <c r="F301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="302" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E302" s="2"/>
       <c r="F302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="303" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E303" s="2"/>
       <c r="F303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="304" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E304" s="2"/>
       <c r="F304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="305" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E305" s="2"/>
       <c r="F305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="306" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E306" s="2"/>
       <c r="F306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="307" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E307" s="2"/>
       <c r="F307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="308" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E308" s="2"/>
       <c r="F308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="309" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E309" s="2"/>
       <c r="F309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="310" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E310" s="2"/>
       <c r="F310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="311" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E311" s="2"/>
       <c r="F311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="312" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E312" s="2"/>
       <c r="F312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="313" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E313" s="2"/>
       <c r="F313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="314" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E314" s="2"/>
       <c r="F314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="315" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E315" s="2"/>
       <c r="F315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="316" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E316" s="2"/>
       <c r="F316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="317" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E317" s="2"/>
       <c r="F317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="318" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E318" s="2"/>
       <c r="F318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="319" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E319" s="2"/>
       <c r="F319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="320" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E320" s="2"/>
       <c r="F320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="321" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E321" s="2"/>
       <c r="F321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="322" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E322" s="2"/>
       <c r="F322" t="str">
-        <f t="shared" ref="F322:F385" si="5">IF(E322="","n.a.",IF(E322&lt;0.7,0,1))</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -3488,413 +3605,413 @@
     <row r="328" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E328" s="2"/>
       <c r="F328" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F328:F391" si="6">IF(E328="","n.a.",IF(E328&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="329" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E329" s="2"/>
       <c r="F329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="330" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E330" s="2"/>
       <c r="F330" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="331" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E331" s="2"/>
       <c r="F331" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="332" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E332" s="2"/>
       <c r="F332" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="333" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E333" s="2"/>
       <c r="F333" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="334" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E334" s="2"/>
       <c r="F334" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="335" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E335" s="2"/>
       <c r="F335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="336" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E336" s="2"/>
       <c r="F336" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="337" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E337" s="2"/>
       <c r="F337" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="338" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E338" s="2"/>
       <c r="F338" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="339" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E339" s="2"/>
       <c r="F339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="340" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E340" s="2"/>
       <c r="F340" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="341" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E341" s="2"/>
       <c r="F341" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="342" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E342" s="2"/>
       <c r="F342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="343" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E343" s="2"/>
       <c r="F343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="344" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E344" s="2"/>
       <c r="F344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="345" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E345" s="2"/>
       <c r="F345" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="346" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E346" s="2"/>
       <c r="F346" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="347" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E347" s="2"/>
       <c r="F347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="348" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E348" s="2"/>
       <c r="F348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="349" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E349" s="2"/>
       <c r="F349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="350" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E350" s="2"/>
       <c r="F350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="351" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E351" s="2"/>
       <c r="F351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="352" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E352" s="2"/>
       <c r="F352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="353" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E353" s="2"/>
       <c r="F353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="354" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E354" s="2"/>
       <c r="F354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="355" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E355" s="2"/>
       <c r="F355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="356" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E356" s="2"/>
       <c r="F356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="357" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E357" s="2"/>
       <c r="F357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="358" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E358" s="2"/>
       <c r="F358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="359" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E359" s="2"/>
       <c r="F359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="360" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E360" s="2"/>
       <c r="F360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="361" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E361" s="2"/>
       <c r="F361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="362" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E362" s="2"/>
       <c r="F362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="363" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E363" s="2"/>
       <c r="F363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="364" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E364" s="2"/>
       <c r="F364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="365" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E365" s="2"/>
       <c r="F365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="366" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E366" s="2"/>
       <c r="F366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="367" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E367" s="2"/>
       <c r="F367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="368" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E368" s="2"/>
       <c r="F368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="369" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E369" s="2"/>
       <c r="F369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="370" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E370" s="2"/>
       <c r="F370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="371" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E371" s="2"/>
       <c r="F371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="372" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E372" s="2"/>
       <c r="F372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="373" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E373" s="2"/>
       <c r="F373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="374" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E374" s="2"/>
       <c r="F374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="375" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E375" s="2"/>
       <c r="F375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="376" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E376" s="2"/>
       <c r="F376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="377" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E377" s="2"/>
       <c r="F377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="378" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E378" s="2"/>
       <c r="F378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="379" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E379" s="2"/>
       <c r="F379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="380" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E380" s="2"/>
       <c r="F380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="381" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E381" s="2"/>
       <c r="F381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="382" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E382" s="2"/>
       <c r="F382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="383" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E383" s="2"/>
       <c r="F383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="384" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E384" s="2"/>
       <c r="F384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="385" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E385" s="2"/>
       <c r="F385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="386" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E386" s="2"/>
       <c r="F386" t="str">
-        <f t="shared" ref="F386:F449" si="6">IF(E386="","n.a.",IF(E386&lt;0.7,0,1))</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -3936,413 +4053,413 @@
     <row r="392" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E392" s="2"/>
       <c r="F392" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F392:F455" si="7">IF(E392="","n.a.",IF(E392&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="393" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E393" s="2"/>
       <c r="F393" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="394" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E394" s="2"/>
       <c r="F394" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="395" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E395" s="2"/>
       <c r="F395" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="396" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E396" s="2"/>
       <c r="F396" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="397" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E397" s="2"/>
       <c r="F397" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="398" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E398" s="2"/>
       <c r="F398" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="399" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E399" s="2"/>
       <c r="F399" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="400" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E400" s="2"/>
       <c r="F400" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="401" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E401" s="2"/>
       <c r="F401" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="402" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E402" s="2"/>
       <c r="F402" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="403" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E403" s="2"/>
       <c r="F403" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="404" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E404" s="2"/>
       <c r="F404" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="405" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E405" s="2"/>
       <c r="F405" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="406" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E406" s="2"/>
       <c r="F406" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="407" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E407" s="2"/>
       <c r="F407" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="408" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E408" s="2"/>
       <c r="F408" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="409" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E409" s="2"/>
       <c r="F409" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="410" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E410" s="2"/>
       <c r="F410" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="411" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E411" s="2"/>
       <c r="F411" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="412" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E412" s="2"/>
       <c r="F412" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="413" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E413" s="2"/>
       <c r="F413" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="414" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E414" s="2"/>
       <c r="F414" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="415" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E415" s="2"/>
       <c r="F415" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="416" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E416" s="2"/>
       <c r="F416" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="417" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E417" s="2"/>
       <c r="F417" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="418" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E418" s="2"/>
       <c r="F418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="419" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E419" s="2"/>
       <c r="F419" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="420" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E420" s="2"/>
       <c r="F420" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="421" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E421" s="2"/>
       <c r="F421" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="422" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E422" s="2"/>
       <c r="F422" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="423" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E423" s="2"/>
       <c r="F423" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="424" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E424" s="2"/>
       <c r="F424" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="425" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E425" s="2"/>
       <c r="F425" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="426" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E426" s="2"/>
       <c r="F426" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="427" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E427" s="2"/>
       <c r="F427" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="428" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E428" s="2"/>
       <c r="F428" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="429" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E429" s="2"/>
       <c r="F429" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="430" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E430" s="2"/>
       <c r="F430" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="431" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E431" s="2"/>
       <c r="F431" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="432" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E432" s="2"/>
       <c r="F432" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="433" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E433" s="2"/>
       <c r="F433" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="434" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E434" s="2"/>
       <c r="F434" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="435" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E435" s="2"/>
       <c r="F435" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="436" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E436" s="2"/>
       <c r="F436" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="437" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E437" s="2"/>
       <c r="F437" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="438" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E438" s="2"/>
       <c r="F438" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="439" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E439" s="2"/>
       <c r="F439" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="440" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E440" s="2"/>
       <c r="F440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="441" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E441" s="2"/>
       <c r="F441" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="442" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E442" s="2"/>
       <c r="F442" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="443" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E443" s="2"/>
       <c r="F443" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="444" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E444" s="2"/>
       <c r="F444" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="445" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E445" s="2"/>
       <c r="F445" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="446" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E446" s="2"/>
       <c r="F446" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="447" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E447" s="2"/>
       <c r="F447" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="448" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E448" s="2"/>
       <c r="F448" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="449" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E449" s="2"/>
       <c r="F449" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="450" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E450" s="2"/>
       <c r="F450" t="str">
-        <f t="shared" ref="F450:F513" si="7">IF(E450="","n.a.",IF(E450&lt;0.7,0,1))</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -4384,413 +4501,413 @@
     <row r="456" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E456" s="2"/>
       <c r="F456" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F456:F519" si="8">IF(E456="","n.a.",IF(E456&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="457" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E457" s="2"/>
       <c r="F457" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="458" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E458" s="2"/>
       <c r="F458" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="459" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E459" s="2"/>
       <c r="F459" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="460" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E460" s="2"/>
       <c r="F460" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="461" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E461" s="2"/>
       <c r="F461" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="462" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E462" s="2"/>
       <c r="F462" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="463" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E463" s="2"/>
       <c r="F463" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="464" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E464" s="2"/>
       <c r="F464" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="465" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E465" s="2"/>
       <c r="F465" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="466" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E466" s="2"/>
       <c r="F466" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="467" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E467" s="2"/>
       <c r="F467" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="468" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E468" s="2"/>
       <c r="F468" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="469" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E469" s="2"/>
       <c r="F469" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="470" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E470" s="2"/>
       <c r="F470" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="471" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E471" s="2"/>
       <c r="F471" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="472" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E472" s="2"/>
       <c r="F472" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="473" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E473" s="2"/>
       <c r="F473" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="474" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E474" s="2"/>
       <c r="F474" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="475" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E475" s="2"/>
       <c r="F475" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="476" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E476" s="2"/>
       <c r="F476" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="477" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E477" s="2"/>
       <c r="F477" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="478" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E478" s="2"/>
       <c r="F478" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="479" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E479" s="2"/>
       <c r="F479" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="480" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E480" s="2"/>
       <c r="F480" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="481" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E481" s="2"/>
       <c r="F481" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="482" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E482" s="2"/>
       <c r="F482" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="483" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E483" s="2"/>
       <c r="F483" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="484" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E484" s="2"/>
       <c r="F484" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="485" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E485" s="2"/>
       <c r="F485" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="486" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E486" s="2"/>
       <c r="F486" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="487" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E487" s="2"/>
       <c r="F487" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="488" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E488" s="2"/>
       <c r="F488" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="489" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E489" s="2"/>
       <c r="F489" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="490" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E490" s="2"/>
       <c r="F490" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="491" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E491" s="2"/>
       <c r="F491" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="492" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E492" s="2"/>
       <c r="F492" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="493" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E493" s="2"/>
       <c r="F493" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="494" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E494" s="2"/>
       <c r="F494" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="495" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E495" s="2"/>
       <c r="F495" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="496" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E496" s="2"/>
       <c r="F496" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="497" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E497" s="2"/>
       <c r="F497" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="498" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E498" s="2"/>
       <c r="F498" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="499" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E499" s="2"/>
       <c r="F499" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="500" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E500" s="2"/>
       <c r="F500" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="501" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E501" s="2"/>
       <c r="F501" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="502" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E502" s="2"/>
       <c r="F502" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="503" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E503" s="2"/>
       <c r="F503" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="504" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E504" s="2"/>
       <c r="F504" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="505" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E505" s="2"/>
       <c r="F505" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="506" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E506" s="2"/>
       <c r="F506" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="507" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E507" s="2"/>
       <c r="F507" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="508" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E508" s="2"/>
       <c r="F508" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="509" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E509" s="2"/>
       <c r="F509" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="510" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E510" s="2"/>
       <c r="F510" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="511" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E511" s="2"/>
       <c r="F511" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="512" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E512" s="2"/>
       <c r="F512" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="513" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E513" s="2"/>
       <c r="F513" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="514" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E514" s="2"/>
       <c r="F514" t="str">
-        <f t="shared" ref="F514:F577" si="8">IF(E514="","n.a.",IF(E514&lt;0.7,0,1))</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -4832,413 +4949,413 @@
     <row r="520" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E520" s="2"/>
       <c r="F520" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F520:F583" si="9">IF(E520="","n.a.",IF(E520&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="521" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E521" s="2"/>
       <c r="F521" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="522" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E522" s="2"/>
       <c r="F522" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="523" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E523" s="2"/>
       <c r="F523" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="524" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E524" s="2"/>
       <c r="F524" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="525" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E525" s="2"/>
       <c r="F525" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="526" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E526" s="2"/>
       <c r="F526" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="527" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E527" s="2"/>
       <c r="F527" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="528" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E528" s="2"/>
       <c r="F528" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="529" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E529" s="2"/>
       <c r="F529" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="530" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E530" s="2"/>
       <c r="F530" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="531" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E531" s="2"/>
       <c r="F531" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="532" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E532" s="2"/>
       <c r="F532" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="533" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E533" s="2"/>
       <c r="F533" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="534" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E534" s="2"/>
       <c r="F534" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="535" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E535" s="2"/>
       <c r="F535" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="536" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E536" s="2"/>
       <c r="F536" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="537" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E537" s="2"/>
       <c r="F537" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="538" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E538" s="2"/>
       <c r="F538" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="539" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E539" s="2"/>
       <c r="F539" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="540" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E540" s="2"/>
       <c r="F540" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="541" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E541" s="2"/>
       <c r="F541" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="542" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E542" s="2"/>
       <c r="F542" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="543" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E543" s="2"/>
       <c r="F543" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="544" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E544" s="2"/>
       <c r="F544" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="545" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E545" s="2"/>
       <c r="F545" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="546" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E546" s="2"/>
       <c r="F546" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="547" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E547" s="2"/>
       <c r="F547" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="548" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E548" s="2"/>
       <c r="F548" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="549" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E549" s="2"/>
       <c r="F549" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="550" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E550" s="2"/>
       <c r="F550" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="551" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E551" s="2"/>
       <c r="F551" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="552" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E552" s="2"/>
       <c r="F552" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="553" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E553" s="2"/>
       <c r="F553" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="554" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E554" s="2"/>
       <c r="F554" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="555" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E555" s="2"/>
       <c r="F555" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="556" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E556" s="2"/>
       <c r="F556" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="557" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E557" s="2"/>
       <c r="F557" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="558" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E558" s="2"/>
       <c r="F558" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="559" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E559" s="2"/>
       <c r="F559" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="560" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E560" s="2"/>
       <c r="F560" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="561" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E561" s="2"/>
       <c r="F561" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="562" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E562" s="2"/>
       <c r="F562" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="563" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E563" s="2"/>
       <c r="F563" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="564" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E564" s="2"/>
       <c r="F564" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="565" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E565" s="2"/>
       <c r="F565" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="566" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E566" s="2"/>
       <c r="F566" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="567" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E567" s="2"/>
       <c r="F567" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="568" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E568" s="2"/>
       <c r="F568" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="569" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E569" s="2"/>
       <c r="F569" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="570" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E570" s="2"/>
       <c r="F570" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="571" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E571" s="2"/>
       <c r="F571" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="572" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E572" s="2"/>
       <c r="F572" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="573" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E573" s="2"/>
       <c r="F573" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="574" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E574" s="2"/>
       <c r="F574" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="575" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E575" s="2"/>
       <c r="F575" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="576" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E576" s="2"/>
       <c r="F576" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="577" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E577" s="2"/>
       <c r="F577" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="578" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E578" s="2"/>
       <c r="F578" t="str">
-        <f t="shared" ref="F578:F641" si="9">IF(E578="","n.a.",IF(E578&lt;0.7,0,1))</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -5280,413 +5397,413 @@
     <row r="584" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E584" s="2"/>
       <c r="F584" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F584:F647" si="10">IF(E584="","n.a.",IF(E584&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="585" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E585" s="2"/>
       <c r="F585" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="586" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E586" s="2"/>
       <c r="F586" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="587" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E587" s="2"/>
       <c r="F587" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="588" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E588" s="2"/>
       <c r="F588" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="589" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E589" s="2"/>
       <c r="F589" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="590" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E590" s="2"/>
       <c r="F590" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="591" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E591" s="2"/>
       <c r="F591" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="592" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E592" s="2"/>
       <c r="F592" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="593" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E593" s="2"/>
       <c r="F593" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="594" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E594" s="2"/>
       <c r="F594" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="595" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E595" s="2"/>
       <c r="F595" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="596" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E596" s="2"/>
       <c r="F596" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="597" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E597" s="2"/>
       <c r="F597" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="598" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E598" s="2"/>
       <c r="F598" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="599" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E599" s="2"/>
       <c r="F599" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="600" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E600" s="2"/>
       <c r="F600" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="601" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E601" s="2"/>
       <c r="F601" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="602" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E602" s="2"/>
       <c r="F602" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="603" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E603" s="2"/>
       <c r="F603" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="604" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E604" s="2"/>
       <c r="F604" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="605" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E605" s="2"/>
       <c r="F605" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="606" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E606" s="2"/>
       <c r="F606" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="607" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E607" s="2"/>
       <c r="F607" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="608" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E608" s="2"/>
       <c r="F608" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="609" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E609" s="2"/>
       <c r="F609" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="610" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E610" s="2"/>
       <c r="F610" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="611" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E611" s="2"/>
       <c r="F611" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="612" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E612" s="2"/>
       <c r="F612" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="613" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E613" s="2"/>
       <c r="F613" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="614" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E614" s="2"/>
       <c r="F614" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="615" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E615" s="2"/>
       <c r="F615" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="616" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E616" s="2"/>
       <c r="F616" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="617" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E617" s="2"/>
       <c r="F617" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="618" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E618" s="2"/>
       <c r="F618" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="619" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E619" s="2"/>
       <c r="F619" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="620" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E620" s="2"/>
       <c r="F620" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="621" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E621" s="2"/>
       <c r="F621" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="622" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E622" s="2"/>
       <c r="F622" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="623" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E623" s="2"/>
       <c r="F623" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="624" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E624" s="2"/>
       <c r="F624" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="625" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E625" s="2"/>
       <c r="F625" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="626" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E626" s="2"/>
       <c r="F626" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="627" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E627" s="2"/>
       <c r="F627" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="628" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E628" s="2"/>
       <c r="F628" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="629" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E629" s="2"/>
       <c r="F629" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="630" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E630" s="2"/>
       <c r="F630" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="631" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E631" s="2"/>
       <c r="F631" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="632" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E632" s="2"/>
       <c r="F632" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="633" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E633" s="2"/>
       <c r="F633" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="634" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E634" s="2"/>
       <c r="F634" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="635" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E635" s="2"/>
       <c r="F635" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="636" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E636" s="2"/>
       <c r="F636" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="637" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E637" s="2"/>
       <c r="F637" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="638" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E638" s="2"/>
       <c r="F638" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="639" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E639" s="2"/>
       <c r="F639" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="640" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E640" s="2"/>
       <c r="F640" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="641" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E641" s="2"/>
       <c r="F641" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="642" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E642" s="2"/>
       <c r="F642" t="str">
-        <f t="shared" ref="F642:F705" si="10">IF(E642="","n.a.",IF(E642&lt;0.7,0,1))</f>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -5728,413 +5845,413 @@
     <row r="648" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E648" s="2"/>
       <c r="F648" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F648:F711" si="11">IF(E648="","n.a.",IF(E648&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="649" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E649" s="2"/>
       <c r="F649" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="650" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E650" s="2"/>
       <c r="F650" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="651" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E651" s="2"/>
       <c r="F651" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="652" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E652" s="2"/>
       <c r="F652" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="653" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E653" s="2"/>
       <c r="F653" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="654" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E654" s="2"/>
       <c r="F654" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="655" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E655" s="2"/>
       <c r="F655" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="656" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E656" s="2"/>
       <c r="F656" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="657" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E657" s="2"/>
       <c r="F657" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="658" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E658" s="2"/>
       <c r="F658" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="659" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E659" s="2"/>
       <c r="F659" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="660" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E660" s="2"/>
       <c r="F660" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="661" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E661" s="2"/>
       <c r="F661" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="662" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E662" s="2"/>
       <c r="F662" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="663" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E663" s="2"/>
       <c r="F663" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="664" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E664" s="2"/>
       <c r="F664" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="665" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E665" s="2"/>
       <c r="F665" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="666" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E666" s="2"/>
       <c r="F666" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="667" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E667" s="2"/>
       <c r="F667" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="668" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E668" s="2"/>
       <c r="F668" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="669" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E669" s="2"/>
       <c r="F669" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="670" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E670" s="2"/>
       <c r="F670" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="671" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E671" s="2"/>
       <c r="F671" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="672" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E672" s="2"/>
       <c r="F672" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="673" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E673" s="2"/>
       <c r="F673" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="674" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E674" s="2"/>
       <c r="F674" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="675" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E675" s="2"/>
       <c r="F675" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="676" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E676" s="2"/>
       <c r="F676" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="677" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E677" s="2"/>
       <c r="F677" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="678" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E678" s="2"/>
       <c r="F678" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="679" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E679" s="2"/>
       <c r="F679" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="680" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E680" s="2"/>
       <c r="F680" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="681" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E681" s="2"/>
       <c r="F681" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="682" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E682" s="2"/>
       <c r="F682" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="683" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E683" s="2"/>
       <c r="F683" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="684" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E684" s="2"/>
       <c r="F684" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="685" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E685" s="2"/>
       <c r="F685" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="686" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E686" s="2"/>
       <c r="F686" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="687" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E687" s="2"/>
       <c r="F687" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="688" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E688" s="2"/>
       <c r="F688" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="689" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E689" s="2"/>
       <c r="F689" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="690" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E690" s="2"/>
       <c r="F690" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="691" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E691" s="2"/>
       <c r="F691" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="692" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E692" s="2"/>
       <c r="F692" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="693" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E693" s="2"/>
       <c r="F693" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="694" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E694" s="2"/>
       <c r="F694" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="695" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E695" s="2"/>
       <c r="F695" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="696" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E696" s="2"/>
       <c r="F696" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="697" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E697" s="2"/>
       <c r="F697" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="698" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E698" s="2"/>
       <c r="F698" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="699" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E699" s="2"/>
       <c r="F699" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="700" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E700" s="2"/>
       <c r="F700" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="701" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E701" s="2"/>
       <c r="F701" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="702" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E702" s="2"/>
       <c r="F702" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="703" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E703" s="2"/>
       <c r="F703" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="704" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E704" s="2"/>
       <c r="F704" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="705" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E705" s="2"/>
       <c r="F705" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="706" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E706" s="2"/>
       <c r="F706" t="str">
-        <f t="shared" ref="F706:F769" si="11">IF(E706="","n.a.",IF(E706&lt;0.7,0,1))</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -6176,413 +6293,413 @@
     <row r="712" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E712" s="2"/>
       <c r="F712" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F712:F775" si="12">IF(E712="","n.a.",IF(E712&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="713" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E713" s="2"/>
       <c r="F713" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="714" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E714" s="2"/>
       <c r="F714" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="715" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E715" s="2"/>
       <c r="F715" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="716" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E716" s="2"/>
       <c r="F716" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="717" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E717" s="2"/>
       <c r="F717" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="718" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E718" s="2"/>
       <c r="F718" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="719" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E719" s="2"/>
       <c r="F719" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="720" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E720" s="2"/>
       <c r="F720" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="721" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E721" s="2"/>
       <c r="F721" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="722" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E722" s="2"/>
       <c r="F722" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="723" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E723" s="2"/>
       <c r="F723" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="724" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E724" s="2"/>
       <c r="F724" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="725" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E725" s="2"/>
       <c r="F725" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="726" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E726" s="2"/>
       <c r="F726" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="727" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E727" s="2"/>
       <c r="F727" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="728" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E728" s="2"/>
       <c r="F728" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="729" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E729" s="2"/>
       <c r="F729" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="730" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E730" s="2"/>
       <c r="F730" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="731" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E731" s="2"/>
       <c r="F731" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="732" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E732" s="2"/>
       <c r="F732" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="733" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E733" s="2"/>
       <c r="F733" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="734" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E734" s="2"/>
       <c r="F734" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="735" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E735" s="2"/>
       <c r="F735" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="736" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E736" s="2"/>
       <c r="F736" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="737" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E737" s="2"/>
       <c r="F737" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="738" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E738" s="2"/>
       <c r="F738" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="739" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E739" s="2"/>
       <c r="F739" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="740" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E740" s="2"/>
       <c r="F740" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="741" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E741" s="2"/>
       <c r="F741" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="742" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E742" s="2"/>
       <c r="F742" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="743" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E743" s="2"/>
       <c r="F743" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="744" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E744" s="2"/>
       <c r="F744" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="745" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E745" s="2"/>
       <c r="F745" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="746" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E746" s="2"/>
       <c r="F746" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="747" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E747" s="2"/>
       <c r="F747" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="748" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E748" s="2"/>
       <c r="F748" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="749" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E749" s="2"/>
       <c r="F749" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="750" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E750" s="2"/>
       <c r="F750" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="751" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E751" s="2"/>
       <c r="F751" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="752" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E752" s="2"/>
       <c r="F752" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="753" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E753" s="2"/>
       <c r="F753" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="754" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E754" s="2"/>
       <c r="F754" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="755" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E755" s="2"/>
       <c r="F755" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="756" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E756" s="2"/>
       <c r="F756" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="757" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E757" s="2"/>
       <c r="F757" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="758" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E758" s="2"/>
       <c r="F758" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="759" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E759" s="2"/>
       <c r="F759" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="760" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E760" s="2"/>
       <c r="F760" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="761" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E761" s="2"/>
       <c r="F761" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="762" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E762" s="2"/>
       <c r="F762" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="763" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E763" s="2"/>
       <c r="F763" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="764" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E764" s="2"/>
       <c r="F764" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="765" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E765" s="2"/>
       <c r="F765" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="766" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E766" s="2"/>
       <c r="F766" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="767" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E767" s="2"/>
       <c r="F767" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="768" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E768" s="2"/>
       <c r="F768" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="769" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E769" s="2"/>
       <c r="F769" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="770" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E770" s="2"/>
       <c r="F770" t="str">
-        <f t="shared" ref="F770:F833" si="12">IF(E770="","n.a.",IF(E770&lt;0.7,0,1))</f>
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -6624,413 +6741,413 @@
     <row r="776" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E776" s="2"/>
       <c r="F776" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F776:F839" si="13">IF(E776="","n.a.",IF(E776&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="777" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E777" s="2"/>
       <c r="F777" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="778" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E778" s="2"/>
       <c r="F778" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="779" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E779" s="2"/>
       <c r="F779" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="780" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E780" s="2"/>
       <c r="F780" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="781" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E781" s="2"/>
       <c r="F781" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="782" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E782" s="2"/>
       <c r="F782" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="783" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E783" s="2"/>
       <c r="F783" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="784" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E784" s="2"/>
       <c r="F784" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="785" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E785" s="2"/>
       <c r="F785" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="786" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E786" s="2"/>
       <c r="F786" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="787" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E787" s="2"/>
       <c r="F787" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="788" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E788" s="2"/>
       <c r="F788" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="789" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E789" s="2"/>
       <c r="F789" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="790" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E790" s="2"/>
       <c r="F790" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="791" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E791" s="2"/>
       <c r="F791" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="792" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E792" s="2"/>
       <c r="F792" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="793" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E793" s="2"/>
       <c r="F793" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="794" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E794" s="2"/>
       <c r="F794" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="795" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E795" s="2"/>
       <c r="F795" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="796" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E796" s="2"/>
       <c r="F796" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="797" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E797" s="2"/>
       <c r="F797" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="798" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E798" s="2"/>
       <c r="F798" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="799" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E799" s="2"/>
       <c r="F799" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="800" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E800" s="2"/>
       <c r="F800" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="801" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E801" s="2"/>
       <c r="F801" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="802" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E802" s="2"/>
       <c r="F802" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="803" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E803" s="2"/>
       <c r="F803" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="804" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E804" s="2"/>
       <c r="F804" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="805" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E805" s="2"/>
       <c r="F805" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="806" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E806" s="2"/>
       <c r="F806" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="807" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E807" s="2"/>
       <c r="F807" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="808" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E808" s="2"/>
       <c r="F808" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="809" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E809" s="2"/>
       <c r="F809" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="810" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E810" s="2"/>
       <c r="F810" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="811" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E811" s="2"/>
       <c r="F811" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="812" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E812" s="2"/>
       <c r="F812" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="813" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E813" s="2"/>
       <c r="F813" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="814" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E814" s="2"/>
       <c r="F814" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="815" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E815" s="2"/>
       <c r="F815" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="816" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E816" s="2"/>
       <c r="F816" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="817" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E817" s="2"/>
       <c r="F817" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="818" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E818" s="2"/>
       <c r="F818" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="819" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E819" s="2"/>
       <c r="F819" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="820" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E820" s="2"/>
       <c r="F820" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="821" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E821" s="2"/>
       <c r="F821" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="822" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E822" s="2"/>
       <c r="F822" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="823" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E823" s="2"/>
       <c r="F823" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="824" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E824" s="2"/>
       <c r="F824" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="825" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E825" s="2"/>
       <c r="F825" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="826" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E826" s="2"/>
       <c r="F826" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="827" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E827" s="2"/>
       <c r="F827" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="828" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E828" s="2"/>
       <c r="F828" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="829" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E829" s="2"/>
       <c r="F829" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="830" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E830" s="2"/>
       <c r="F830" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="831" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E831" s="2"/>
       <c r="F831" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="832" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E832" s="2"/>
       <c r="F832" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="833" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E833" s="2"/>
       <c r="F833" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="834" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E834" s="2"/>
       <c r="F834" t="str">
-        <f t="shared" ref="F834:F897" si="13">IF(E834="","n.a.",IF(E834&lt;0.7,0,1))</f>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -7072,413 +7189,413 @@
     <row r="840" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E840" s="2"/>
       <c r="F840" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F840:F903" si="14">IF(E840="","n.a.",IF(E840&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="841" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E841" s="2"/>
       <c r="F841" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="842" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E842" s="2"/>
       <c r="F842" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="843" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E843" s="2"/>
       <c r="F843" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="844" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E844" s="2"/>
       <c r="F844" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="845" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E845" s="2"/>
       <c r="F845" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="846" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E846" s="2"/>
       <c r="F846" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="847" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E847" s="2"/>
       <c r="F847" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="848" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E848" s="2"/>
       <c r="F848" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="849" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E849" s="2"/>
       <c r="F849" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="850" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E850" s="2"/>
       <c r="F850" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="851" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E851" s="2"/>
       <c r="F851" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="852" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E852" s="2"/>
       <c r="F852" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="853" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E853" s="2"/>
       <c r="F853" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="854" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E854" s="2"/>
       <c r="F854" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="855" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E855" s="2"/>
       <c r="F855" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="856" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E856" s="2"/>
       <c r="F856" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="857" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E857" s="2"/>
       <c r="F857" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="858" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E858" s="2"/>
       <c r="F858" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="859" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E859" s="2"/>
       <c r="F859" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="860" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E860" s="2"/>
       <c r="F860" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="861" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E861" s="2"/>
       <c r="F861" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="862" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E862" s="2"/>
       <c r="F862" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="863" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E863" s="2"/>
       <c r="F863" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="864" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E864" s="2"/>
       <c r="F864" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="865" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E865" s="2"/>
       <c r="F865" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="866" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E866" s="2"/>
       <c r="F866" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="867" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E867" s="2"/>
       <c r="F867" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="868" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E868" s="2"/>
       <c r="F868" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="869" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E869" s="2"/>
       <c r="F869" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="870" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E870" s="2"/>
       <c r="F870" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="871" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E871" s="2"/>
       <c r="F871" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="872" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E872" s="2"/>
       <c r="F872" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="873" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E873" s="2"/>
       <c r="F873" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="874" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E874" s="2"/>
       <c r="F874" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="875" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E875" s="2"/>
       <c r="F875" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="876" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E876" s="2"/>
       <c r="F876" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="877" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E877" s="2"/>
       <c r="F877" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="878" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E878" s="2"/>
       <c r="F878" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="879" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E879" s="2"/>
       <c r="F879" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="880" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E880" s="2"/>
       <c r="F880" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="881" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E881" s="2"/>
       <c r="F881" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="882" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E882" s="2"/>
       <c r="F882" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="883" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E883" s="2"/>
       <c r="F883" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="884" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E884" s="2"/>
       <c r="F884" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="885" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E885" s="2"/>
       <c r="F885" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="886" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E886" s="2"/>
       <c r="F886" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="887" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E887" s="2"/>
       <c r="F887" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="888" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E888" s="2"/>
       <c r="F888" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="889" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E889" s="2"/>
       <c r="F889" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="890" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E890" s="2"/>
       <c r="F890" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="891" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E891" s="2"/>
       <c r="F891" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="892" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E892" s="2"/>
       <c r="F892" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="893" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E893" s="2"/>
       <c r="F893" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="894" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E894" s="2"/>
       <c r="F894" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="895" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E895" s="2"/>
       <c r="F895" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="896" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E896" s="2"/>
       <c r="F896" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="897" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E897" s="2"/>
       <c r="F897" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="898" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E898" s="2"/>
       <c r="F898" t="str">
-        <f t="shared" ref="F898:F961" si="14">IF(E898="","n.a.",IF(E898&lt;0.7,0,1))</f>
+        <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -7520,413 +7637,413 @@
     <row r="904" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E904" s="2"/>
       <c r="F904" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F904:F967" si="15">IF(E904="","n.a.",IF(E904&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="905" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E905" s="2"/>
       <c r="F905" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="906" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E906" s="2"/>
       <c r="F906" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="907" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E907" s="2"/>
       <c r="F907" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="908" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E908" s="2"/>
       <c r="F908" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="909" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E909" s="2"/>
       <c r="F909" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="910" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E910" s="2"/>
       <c r="F910" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="911" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E911" s="2"/>
       <c r="F911" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="912" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E912" s="2"/>
       <c r="F912" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="913" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E913" s="2"/>
       <c r="F913" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="914" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E914" s="2"/>
       <c r="F914" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="915" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E915" s="2"/>
       <c r="F915" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="916" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E916" s="2"/>
       <c r="F916" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="917" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E917" s="2"/>
       <c r="F917" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="918" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E918" s="2"/>
       <c r="F918" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="919" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E919" s="2"/>
       <c r="F919" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="920" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E920" s="2"/>
       <c r="F920" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="921" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E921" s="2"/>
       <c r="F921" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="922" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E922" s="2"/>
       <c r="F922" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="923" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E923" s="2"/>
       <c r="F923" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="924" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E924" s="2"/>
       <c r="F924" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="925" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E925" s="2"/>
       <c r="F925" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="926" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E926" s="2"/>
       <c r="F926" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="927" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E927" s="2"/>
       <c r="F927" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="928" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E928" s="2"/>
       <c r="F928" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="929" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E929" s="2"/>
       <c r="F929" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="930" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E930" s="2"/>
       <c r="F930" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="931" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E931" s="2"/>
       <c r="F931" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="932" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E932" s="2"/>
       <c r="F932" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="933" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E933" s="2"/>
       <c r="F933" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="934" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E934" s="2"/>
       <c r="F934" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="935" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E935" s="2"/>
       <c r="F935" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="936" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E936" s="2"/>
       <c r="F936" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="937" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E937" s="2"/>
       <c r="F937" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="938" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E938" s="2"/>
       <c r="F938" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="939" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E939" s="2"/>
       <c r="F939" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="940" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E940" s="2"/>
       <c r="F940" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="941" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E941" s="2"/>
       <c r="F941" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="942" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E942" s="2"/>
       <c r="F942" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="943" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E943" s="2"/>
       <c r="F943" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="944" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E944" s="2"/>
       <c r="F944" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="945" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E945" s="2"/>
       <c r="F945" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="946" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E946" s="2"/>
       <c r="F946" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="947" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E947" s="2"/>
       <c r="F947" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="948" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E948" s="2"/>
       <c r="F948" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="949" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E949" s="2"/>
       <c r="F949" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="950" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E950" s="2"/>
       <c r="F950" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="951" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E951" s="2"/>
       <c r="F951" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="952" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E952" s="2"/>
       <c r="F952" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="953" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E953" s="2"/>
       <c r="F953" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="954" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E954" s="2"/>
       <c r="F954" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="955" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E955" s="2"/>
       <c r="F955" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="956" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E956" s="2"/>
       <c r="F956" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="957" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E957" s="2"/>
       <c r="F957" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="958" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E958" s="2"/>
       <c r="F958" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="959" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E959" s="2"/>
       <c r="F959" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="960" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E960" s="2"/>
       <c r="F960" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="961" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E961" s="2"/>
       <c r="F961" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="962" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E962" s="2"/>
       <c r="F962" t="str">
-        <f t="shared" ref="F962:F1001" si="15">IF(E962="","n.a.",IF(E962&lt;0.7,0,1))</f>
+        <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
     </row>
@@ -7968,258 +8085,282 @@
     <row r="968" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E968" s="2"/>
       <c r="F968" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F968:F1007" si="16">IF(E968="","n.a.",IF(E968&lt;0.7,0,1))</f>
         <v>n.a.</v>
       </c>
     </row>
     <row r="969" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E969" s="2"/>
       <c r="F969" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="970" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E970" s="2"/>
       <c r="F970" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="971" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E971" s="2"/>
       <c r="F971" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="972" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E972" s="2"/>
       <c r="F972" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="973" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E973" s="2"/>
       <c r="F973" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="974" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E974" s="2"/>
       <c r="F974" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="975" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E975" s="2"/>
       <c r="F975" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="976" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E976" s="2"/>
       <c r="F976" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="977" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E977" s="2"/>
       <c r="F977" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="978" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E978" s="2"/>
       <c r="F978" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="979" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E979" s="2"/>
       <c r="F979" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="980" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E980" s="2"/>
       <c r="F980" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="981" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E981" s="2"/>
       <c r="F981" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="982" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E982" s="2"/>
       <c r="F982" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="983" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E983" s="2"/>
       <c r="F983" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="984" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E984" s="2"/>
       <c r="F984" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="985" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E985" s="2"/>
       <c r="F985" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="986" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E986" s="2"/>
       <c r="F986" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="987" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E987" s="2"/>
       <c r="F987" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="988" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E988" s="2"/>
       <c r="F988" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="989" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E989" s="2"/>
       <c r="F989" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="990" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E990" s="2"/>
       <c r="F990" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="991" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E991" s="2"/>
       <c r="F991" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="992" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E992" s="2"/>
       <c r="F992" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="993" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E993" s="2"/>
       <c r="F993" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="994" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E994" s="2"/>
       <c r="F994" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="995" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E995" s="2"/>
       <c r="F995" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="996" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E996" s="2"/>
       <c r="F996" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="997" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E997" s="2"/>
       <c r="F997" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="998" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E998" s="2"/>
       <c r="F998" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="999" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E999" s="2"/>
       <c r="F999" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="1000" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1000" s="2"/>
       <c r="F1000" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="1001" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1001" s="2"/>
       <c r="F1001" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
     </row>
     <row r="1002" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1002" s="2"/>
+      <c r="F1002" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1003" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1003" s="2"/>
+      <c r="F1003" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1004" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1004" s="2"/>
+      <c r="F1004" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1005" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1005" s="2"/>
+      <c r="F1005" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1006" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1006" s="2"/>
+      <c r="F1006" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1007" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1007" s="2"/>
+      <c r="F1007" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
     </row>
     <row r="1008" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E1008" s="2"/>
@@ -8263,8 +8404,26 @@
     <row r="1021" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E1021" s="2"/>
     </row>
+    <row r="1022" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1022" s="2"/>
+    </row>
+    <row r="1023" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1023" s="2"/>
+    </row>
+    <row r="1024" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1024" s="2"/>
+    </row>
+    <row r="1025" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1025" s="2"/>
+    </row>
+    <row r="1026" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1026" s="2"/>
+    </row>
+    <row r="1027" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E1027" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1021">
+  <conditionalFormatting sqref="F2:F1027">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -713,7 +713,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68968296532168805</v>
+        <v>0.69861010172082794</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F71" si="1">IF(E8="","n.a.",IF(E8&lt;0.7,0,1))</f>
@@ -734,7 +734,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="2">
-        <v>0.79394920822215154</v>
+        <v>0.79771876635528216</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="2">
-        <v>0.77482339944313938</v>
+        <v>0.77324957432738162</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="2">
-        <v>0.82687727403715194</v>
+        <v>0.82523623856074635</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="2">
-        <v>0.77521333153418281</v>
+        <v>0.77418707741092208</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -818,7 +818,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="2">
-        <v>0.77715421241518079</v>
+        <v>0.77517705116729763</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -951,7 +951,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="2">
-        <v>0.62855292840611876</v>
+        <v>0.615162923666559</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="2">
-        <v>0.63777081364340005</v>
+        <v>0.6407323614837136</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
@@ -993,7 +993,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="2">
-        <v>0.71050110990299897</v>
+        <v>0.70506102686013872</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -1014,7 +1014,7 @@
         <v>35</v>
       </c>
       <c r="E24" s="2">
-        <v>0.85457112827674131</v>
+        <v>0.85260893707265906</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -1035,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="2">
-        <v>0.77727138967244924</v>
+        <v>0.77024989616050177</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
@@ -1056,7 +1056,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="2">
-        <v>0.73030107410643075</v>
+        <v>0.72315531293363244</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
@@ -1189,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="E34" s="2">
-        <v>0.88377151915230445</v>
+        <v>0.88541539422498994</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -1210,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2">
-        <v>0.93138816423470216</v>
+        <v>0.93006256688195676</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -1231,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="2">
-        <v>0.90333788895638645</v>
+        <v>0.90150188613479521</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
@@ -1252,7 +1252,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="2">
-        <v>0.65745332040991855</v>
+        <v>0.6565218803097731</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="2">
-        <v>0.6410009318145623</v>
+        <v>0.64430526037663449</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
@@ -1294,7 +1294,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="2">
-        <v>0.70600146265921526</v>
+        <v>0.70786188269463246</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -1427,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="2">
-        <v>0.38163998557494</v>
+        <v>0.37984454924567129</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
@@ -1448,7 +1448,7 @@
         <v>35</v>
       </c>
       <c r="E48" s="2">
-        <v>0.47021387639616358</v>
+        <v>0.46614680711297962</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
@@ -1469,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="E49" s="2">
-        <v>0.38590122441754188</v>
+        <v>0.384960776705147</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
@@ -1490,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="E50" s="2">
-        <v>0.66693040978983731</v>
+        <v>0.67022087260984964</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="2">
-        <v>0.4843387370556379</v>
+        <v>0.48956448606352948</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
@@ -1532,7 +1532,7 @@
         <v>35</v>
       </c>
       <c r="E52" s="2">
-        <v>0.50032292418690938</v>
+        <v>0.48947414177980991</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="2">
-        <v>0.69439297114564247</v>
+        <v>0.67974292441480011</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
@@ -1622,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="2">
-        <v>0.73811715773359154</v>
+        <v>0.73723652377610138</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
@@ -1643,11 +1643,11 @@
         <v>35</v>
       </c>
       <c r="E58" s="2">
-        <v>0.70917552915408955</v>
+        <v>0.6895504117134762</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,7 +1664,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="2">
-        <v>0.75889511614818339</v>
+        <v>0.74417042790677312</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
@@ -1685,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="2">
-        <v>0.65720259675006976</v>
+        <v>0.67926217348995077</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
@@ -1706,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="E61" s="2">
-        <v>0.62462961600986622</v>
+        <v>0.6171899492989581</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>

--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -15,6 +15,9 @@
     <sheet name="indices" sheetId="2" r:id="rId1"/>
     <sheet name="notes" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$88</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="94">
   <si>
     <t>index</t>
   </si>
@@ -304,6 +307,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>inclusion</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -409,11 +415,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -431,6 +462,219 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -463,6 +707,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4FC18D"/>
+      <color rgb="FF005828"/>
+      <color rgb="FF4EBE79"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,9 +988,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft"/>
@@ -752,13 +1003,13 @@
     <col min="3" max="3" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="6" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="99.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -789,8 +1040,11 @@
       <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -821,8 +1075,11 @@
       <c r="I2" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -853,8 +1110,11 @@
       <c r="I3" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -885,8 +1145,11 @@
       <c r="I4" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -917,8 +1180,11 @@
       <c r="I5" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -949,8 +1215,11 @@
       <c r="I6" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -981,8 +1250,11 @@
       <c r="I7" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1013,8 +1285,11 @@
       <c r="I8" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1045,8 +1320,11 @@
       <c r="I9" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1077,8 +1355,11 @@
       <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1109,8 +1390,11 @@
       <c r="I11" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1141,8 +1425,11 @@
       <c r="I12" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1173,8 +1460,11 @@
       <c r="I13" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1205,8 +1495,11 @@
       <c r="I14" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1237,8 +1530,11 @@
       <c r="I15" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1269,8 +1565,11 @@
       <c r="I16" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1600,11 @@
       <c r="I17" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1333,8 +1635,11 @@
       <c r="I18" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1670,11 @@
       <c r="I19" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1397,8 +1705,11 @@
       <c r="I20" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1429,8 +1740,11 @@
       <c r="I21" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1461,8 +1775,11 @@
       <c r="I22" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1493,8 +1810,11 @@
       <c r="I23" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1525,8 +1845,11 @@
       <c r="I24" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1557,8 +1880,11 @@
       <c r="I25" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -1589,8 +1915,11 @@
       <c r="I26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1621,8 +1950,11 @@
       <c r="I27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1653,8 +1985,11 @@
       <c r="I28" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1688,8 +2023,11 @@
       <c r="J29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1720,8 +2058,11 @@
       <c r="I30" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1752,8 +2093,11 @@
       <c r="I31" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1784,8 +2128,11 @@
       <c r="I32" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1816,8 +2163,11 @@
       <c r="I33" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1848,8 +2198,11 @@
       <c r="I34" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -1880,8 +2233,11 @@
       <c r="I35" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1912,8 +2268,11 @@
       <c r="I36" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1944,8 +2303,11 @@
       <c r="I37" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -1976,8 +2338,11 @@
       <c r="I38" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -2008,8 +2373,11 @@
       <c r="I39" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2040,8 +2408,11 @@
       <c r="I40" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2072,8 +2443,11 @@
       <c r="I41" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -2104,8 +2478,11 @@
       <c r="I42" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -2139,8 +2516,11 @@
       <c r="J43" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -2171,8 +2551,11 @@
       <c r="I44" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2203,8 +2586,11 @@
       <c r="I45" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -2235,8 +2621,11 @@
       <c r="I46" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -2267,8 +2656,11 @@
       <c r="I47" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -2299,8 +2691,11 @@
       <c r="I48" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -2331,8 +2726,11 @@
       <c r="I49" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -2363,8 +2761,11 @@
       <c r="I50" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -2398,8 +2799,11 @@
       <c r="J51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2433,8 +2837,11 @@
       <c r="J52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -2465,8 +2872,11 @@
       <c r="I53" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -2497,8 +2907,11 @@
       <c r="I54" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -2529,8 +2942,11 @@
       <c r="I55" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2561,8 +2977,11 @@
       <c r="I56" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -2593,8 +3012,11 @@
       <c r="I57" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2625,8 +3047,11 @@
       <c r="I58" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -2657,8 +3082,11 @@
       <c r="I59" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -2689,8 +3117,11 @@
       <c r="I60" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2721,8 +3152,11 @@
       <c r="I61" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -2753,8 +3187,11 @@
       <c r="I62" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -2785,8 +3222,11 @@
       <c r="I63" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -2817,8 +3257,11 @@
       <c r="I64" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -2849,8 +3292,11 @@
       <c r="I65" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -2881,8 +3327,11 @@
       <c r="I66" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -2913,8 +3362,11 @@
       <c r="I67" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -2948,8 +3400,11 @@
       <c r="J68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -2983,8 +3438,11 @@
       <c r="J69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -3018,8 +3476,11 @@
       <c r="J70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -3050,8 +3511,11 @@
       <c r="I71" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -3082,8 +3546,11 @@
       <c r="I72" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3117,8 +3584,11 @@
       <c r="J73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>49</v>
       </c>
@@ -3149,8 +3619,11 @@
       <c r="I74" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
@@ -3181,8 +3654,11 @@
       <c r="I75" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>49</v>
       </c>
@@ -3210,8 +3686,11 @@
       <c r="I76" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>49</v>
       </c>
@@ -3245,8 +3724,11 @@
       <c r="J77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>49</v>
       </c>
@@ -3277,8 +3759,11 @@
       <c r="I78" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>49</v>
       </c>
@@ -3309,8 +3794,11 @@
       <c r="J79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>49</v>
       </c>
@@ -3344,8 +3832,11 @@
       <c r="J80" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>49</v>
       </c>
@@ -3379,8 +3870,11 @@
       <c r="J81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>49</v>
       </c>
@@ -3414,8 +3908,11 @@
       <c r="J82" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>49</v>
       </c>
@@ -3449,8 +3946,11 @@
       <c r="J83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>49</v>
       </c>
@@ -3484,8 +3984,11 @@
       <c r="J84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>49</v>
       </c>
@@ -3519,8 +4022,11 @@
       <c r="J85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>49</v>
       </c>
@@ -3554,8 +4060,11 @@
       <c r="J86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>49</v>
       </c>
@@ -3589,8 +4098,11 @@
       <c r="J87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>49</v>
       </c>
@@ -3618,29 +4130,32 @@
       <c r="I88" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.3">
@@ -3648,18 +4163,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F97">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3671,7 +4186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I97">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3680,6 +4195,28 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K88">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="notes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$90</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="98">
   <si>
     <t>index</t>
   </si>
@@ -228,9 +228,6 @@
     <t>2AFC</t>
   </si>
   <si>
-    <t>outliers</t>
-  </si>
-  <si>
     <t>reliability 0.5 crit.</t>
   </si>
   <si>
@@ -310,6 +307,21 @@
   </si>
   <si>
     <t>inclusion</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>internal consistency not applicable</t>
+  </si>
+  <si>
+    <t>internal consistency not applicable?</t>
+  </si>
+  <si>
+    <t>outliers; internal consistency not applicable?</t>
+  </si>
+  <si>
+    <t>outliers; internal consistency not applicable</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -418,93 +430,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="7" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
@@ -559,45 +496,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -621,87 +519,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -988,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1032,7 +849,7 @@
         <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>57</v>
@@ -1041,7 +858,7 @@
         <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1100,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G63" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
+        <f t="shared" ref="G3:G65" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H3">
@@ -1209,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H40" si="3">IF(E6="","n.a.",IF(E6&lt;0.5,0,1))</f>
+        <f t="shared" ref="H6:H41" si="3">IF(E6="","n.a.",IF(E6&lt;0.5,0,1))</f>
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1531,7 +1348,7 @@
         <v>58</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1383,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1586,7 +1403,7 @@
         <v>0.64628690101858699</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F76" si="4">IF(E17="","n.a.",IF(E17&lt;0.7,0,1))</f>
+        <f t="shared" ref="F17:F78" si="4">IF(E17="","n.a.",IF(E17&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G17">
@@ -2035,28 +1852,15 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.623</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="I30" s="8"/>
+      <c r="J30" t="s">
+        <v>94</v>
       </c>
       <c r="K30" s="9">
         <v>1</v>
@@ -2067,16 +1871,16 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2">
-        <v>0.60115515106170703</v>
+        <v>0.623</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
@@ -2090,11 +1894,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>92</v>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2105,13 +1909,13 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="2">
-        <v>0.34813515354423302</v>
+        <v>0.60115515106170703</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
@@ -2119,17 +1923,17 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2140,13 +1944,13 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="2">
-        <v>0.59455946919262204</v>
+        <v>0.34813515354423302</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
@@ -2158,13 +1962,13 @@
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2175,21 +1979,21 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="2">
-        <v>0.91519718758964297</v>
+        <v>0.59455946919262204</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
@@ -2199,7 +2003,7 @@
         <v>58</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2210,13 +2014,13 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="2">
-        <v>0.85287703367313095</v>
+        <v>0.91519718758964297</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
@@ -2234,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2245,13 +2049,13 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="2">
-        <v>0.85652048478375797</v>
+        <v>0.85287703367313095</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
@@ -2269,7 +2073,7 @@
         <v>58</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2280,31 +2084,31 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E37" s="2">
-        <v>-1.2500000000000001E-2</v>
+        <v>0.85652048478375797</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="9">
-        <v>0</v>
+      <c r="K37" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2315,13 +2119,13 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="2">
-        <v>0.17299999999999999</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
@@ -2350,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
@@ -2385,13 +2189,13 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.23599999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
@@ -2420,24 +2224,24 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>54</v>
       </c>
       <c r="E41" s="2">
-        <v>0.114</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>IF(E41="","n.a.",IF(E41&lt;0.6,0,1))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(E41="","n.a.",IF(E41&lt;0.5,0,1))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -2455,24 +2259,24 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
       <c r="E42" s="2">
-        <v>-4.2000000000000003E-2</v>
+        <v>0.114</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f>IF(E42="","n.a.",IF(E42&lt;0.6,0,1))</f>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H76" si="10">IF(E42="","n.a.",IF(E42&lt;0.5,0,1))</f>
+        <f>IF(E42="","n.a.",IF(E42&lt;0.5,0,1))</f>
         <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -2490,31 +2294,28 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="2">
-        <v>0.38</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="11">IF(E43="","n.a.",IF(E43&lt;0.7,0,1))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="12">IF(E43="","n.a.",IF(E43&lt;0.6,0,1))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="13">IF(E43="","n.a.",IF(E43&lt;0.5,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>71</v>
+        <f t="shared" ref="H43:H78" si="10">IF(E43="","n.a.",IF(E43&lt;0.5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K43" s="9">
         <v>0</v>
@@ -2528,31 +2329,34 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44">
-        <v>0.51300000000000001</v>
+      <c r="E44" s="2">
+        <v>0.38</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F44" si="11">IF(E44="","n.a.",IF(E44&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G44" si="12">IF(E44="","n.a.",IF(E44&lt;0.6,0,1))</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="H44" si="13">IF(E44="","n.a.",IF(E44&lt;0.5,0,1))</f>
+        <v>0</v>
       </c>
       <c r="I44" s="8">
-        <v>1</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2560,34 +2364,21 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.89500323056132902</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="9">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="I45" s="8"/>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2595,34 +2386,34 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.93655795547967802</v>
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>0.51300000000000001</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K46" s="9">
-        <v>1</v>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2633,13 +2424,13 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="2">
-        <v>0.92148349632995297</v>
+        <v>0.89500323056132902</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
@@ -2668,31 +2459,31 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="2">
-        <v>0.449746957984903</v>
+        <v>0.93655795547967802</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K48" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2703,17 +2494,17 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="2">
-        <v>0.66586426620469397</v>
+        <v>0.92148349632995297</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -2738,31 +2529,31 @@
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="2">
-        <v>0.74982132012043701</v>
+        <v>0.449746957984903</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2773,13 +2564,13 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51">
-        <v>0.61499999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.66586426620469397</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
@@ -2793,11 +2584,8 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I51" s="8">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>66</v>
+      <c r="I51" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K51" s="9">
         <v>1</v>
@@ -2811,17 +2599,17 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E52" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.74982132012043701</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -2831,11 +2619,8 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I52" s="8">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>66</v>
+      <c r="I52" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K52" s="9">
         <v>1</v>
@@ -2846,16 +2631,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.221506486814086</v>
+        <v>54</v>
+      </c>
+      <c r="E53">
+        <v>0.61499999999999999</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
@@ -2863,17 +2648,20 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="I53" s="8">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>97</v>
       </c>
       <c r="K53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2881,16 +2669,16 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E54" s="2">
-        <v>0.26998210841371101</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
@@ -2898,17 +2686,20 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>97</v>
       </c>
       <c r="K54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2919,13 +2710,13 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="2">
-        <v>0.24716900584732801</v>
+        <v>0.221506486814086</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
@@ -2954,13 +2745,13 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="2">
-        <v>0.63369570844167</v>
+        <v>0.26998210841371101</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
@@ -2968,17 +2759,17 @@
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>92</v>
+      <c r="K56" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2989,13 +2780,13 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="2">
-        <v>0.37972745870019098</v>
+        <v>0.24716900584732801</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
@@ -3024,13 +2815,13 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="2">
-        <v>0.38979800343726001</v>
+        <v>0.63369570844167</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
@@ -3038,17 +2829,17 @@
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K58" s="9">
-        <v>0</v>
+      <c r="K58" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3059,13 +2850,13 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E59" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.37972745870019098</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
@@ -3077,13 +2868,13 @@
       </c>
       <c r="H59">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I59" s="8">
-        <v>1</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3094,13 +2885,13 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E60" s="2">
-        <v>0.252</v>
+        <v>0.38979800343726001</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
@@ -3114,8 +2905,8 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I60" s="8">
-        <v>0</v>
+      <c r="I60" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K60" s="9">
         <v>0</v>
@@ -3129,13 +2920,13 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61" s="2">
-        <v>0.5</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
@@ -3152,8 +2943,11 @@
       <c r="I61" s="8">
         <v>1</v>
       </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
       <c r="K61" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3161,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E62" s="2">
-        <v>0.69599668889170196</v>
+        <v>0.252</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
@@ -3178,17 +2972,20 @@
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3196,34 +2993,37 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E63" s="2">
-        <v>0.73569692300554701</v>
+        <v>0.5</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>58</v>
+      <c r="I63" s="8">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3234,20 +3034,20 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="2">
-        <v>0.68853557692638501</v>
+        <v>0.69599668889170196</v>
       </c>
       <c r="F64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64:G76" si="14">IF(E64="","n.a.",IF(E64&lt;0.6,0,1))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H64">
@@ -3258,7 +3058,7 @@
         <v>58</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3269,20 +3069,20 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65" s="2">
-        <v>0.744597811780768</v>
+        <v>0.73569692300554701</v>
       </c>
       <c r="F65">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H65">
@@ -3293,7 +3093,7 @@
         <v>58</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3304,20 +3104,20 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="2">
-        <v>0.67472436666248803</v>
+        <v>0.68853557692638501</v>
       </c>
       <c r="F66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G66:G78" si="14">IF(E66="","n.a.",IF(E66&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H66">
@@ -3328,7 +3128,7 @@
         <v>58</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3339,17 +3139,17 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="2">
-        <v>0.61694815183603702</v>
+        <v>0.744597811780768</v>
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <f t="shared" si="14"/>
@@ -3363,7 +3163,7 @@
         <v>58</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3371,37 +3171,34 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68">
-        <v>0.61499999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.67472436666248803</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F70" si="15">IF(E68="","n.a.",IF(E68&lt;0.7,0,1))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G70" si="16">IF(E68="","n.a.",IF(E68&lt;0.6,0,1))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H70" si="17">IF(E68="","n.a.",IF(E68&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I68" s="8">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>66</v>
-      </c>
-      <c r="K68" s="9">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3409,37 +3206,34 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E69" s="2">
-        <v>0.43</v>
+        <v>0.61694815183603702</v>
       </c>
       <c r="F69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>66</v>
-      </c>
-      <c r="K69" s="9">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3447,37 +3241,37 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="2">
-        <v>0.29399999999999998</v>
+      <c r="E70">
+        <v>0.61499999999999999</v>
       </c>
       <c r="F70">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F70:F72" si="15">IF(E70="","n.a.",IF(E70&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="G70:G72" si="16">IF(E70="","n.a.",IF(E70&lt;0.6,0,1))</f>
+        <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="H70:H72" si="17">IF(E70="","n.a.",IF(E70&lt;0.5,0,1))</f>
+        <v>1</v>
       </c>
       <c r="I70" s="8">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>66</v>
-      </c>
-      <c r="K70" s="9">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3485,34 +3279,37 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>54</v>
       </c>
       <c r="E71" s="2">
-        <v>0.249</v>
+        <v>0.43</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I71" s="8">
         <v>0</v>
       </c>
-      <c r="K71" s="9">
-        <v>0</v>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3520,34 +3317,37 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
       </c>
       <c r="E72" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I72" s="8">
         <v>0</v>
       </c>
-      <c r="K72" s="9">
-        <v>0</v>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3555,16 +3355,16 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" s="2">
-        <v>0.51</v>
+        <v>0.249</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
@@ -3576,68 +3376,71 @@
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="8">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>66</v>
-      </c>
-      <c r="K73" s="9">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>49</v>
+      <c r="A74" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E74" s="2">
-        <v>0.85337520156869895</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K74" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>49</v>
+      <c r="A75" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E75" s="2">
-        <v>0.58452270602324097</v>
+        <v>0.51</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
@@ -3651,11 +3454,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K75" s="9">
-        <v>0</v>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3663,13 +3469,16 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E76" s="2">
-        <v>0.9</v>
+        <v>0.85337520156869895</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
@@ -3695,34 +3504,31 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E77" s="2">
-        <v>0.67200000000000004</v>
+        <v>0.58452270602324097</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F79" si="18">IF(E77="","n.a.",IF(E77&lt;0.7,0,1))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G79" si="19">IF(E77="","n.a.",IF(E77&lt;0.6,0,1))</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" ref="H77:H79" si="20">IF(E77="","n.a.",IF(E77&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I77" s="8">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>79</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K77" s="9">
         <v>0</v>
@@ -3733,31 +3539,28 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="E78" s="2">
-        <v>0.63</v>
+        <v>0.9</v>
       </c>
       <c r="F78">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="8">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="K78" s="9">
         <v>1</v>
@@ -3768,34 +3571,37 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F79">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F79:F81" si="18">IF(E79="","n.a.",IF(E79&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G79:G81" si="19">IF(E79="","n.a.",IF(E79&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H79">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>92</v>
+        <f t="shared" ref="H79:H81" si="20">IF(E79="","n.a.",IF(E79&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="K79" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3803,37 +3609,34 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
       </c>
       <c r="E80" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F80">
-        <f t="shared" ref="F80:F88" si="21">IF(E80="","n.a.",IF(E80&lt;0.7,0,1))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" ref="G80:G88" si="22">IF(E80="","n.a.",IF(E80&lt;0.6,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" ref="H80:H88" si="23">IF(E80="","n.a.",IF(E80&lt;0.5,0,1))</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I80" s="8">
         <v>1</v>
       </c>
-      <c r="J80" t="s">
-        <v>86</v>
-      </c>
       <c r="K80" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3841,37 +3644,34 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.06</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="8">
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J81" t="s">
-        <v>86</v>
-      </c>
-      <c r="K81" s="9">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3879,34 +3679,34 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
         <v>76</v>
-      </c>
-      <c r="C82" t="s">
-        <v>80</v>
       </c>
       <c r="D82" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="2">
-        <v>0.27</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F82">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F82:F90" si="21">IF(E82="","n.a.",IF(E82&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="G82:G90" si="22">IF(E82="","n.a.",IF(E82&lt;0.6,0,1))</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" ref="H82:H90" si="23">IF(E82="","n.a.",IF(E82&lt;0.5,0,1))</f>
+        <v>1</v>
       </c>
       <c r="I82" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K82" s="9">
         <v>0</v>
@@ -3917,16 +3717,16 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2">
-        <v>0.14000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="F83">
         <f t="shared" si="21"/>
@@ -3944,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K83" s="9">
         <v>0</v>
@@ -3955,16 +3755,16 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.03</v>
+        <v>0.27</v>
       </c>
       <c r="F84">
         <f t="shared" si="21"/>
@@ -3979,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="I84" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K84" s="9">
         <v>0</v>
@@ -3993,16 +3793,16 @@
         <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
         <v>54</v>
       </c>
       <c r="E85" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F85">
         <f t="shared" si="21"/>
@@ -4014,13 +3814,13 @@
       </c>
       <c r="H85">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" s="8">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K85" s="9">
         <v>0</v>
@@ -4031,16 +3831,16 @@
         <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
         <v>54</v>
       </c>
       <c r="E86" s="2">
-        <v>0.68100000000000005</v>
+        <v>-0.03</v>
       </c>
       <c r="F86">
         <f t="shared" si="21"/>
@@ -4048,20 +3848,20 @@
       </c>
       <c r="G86">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="8">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K86" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4069,16 +3869,16 @@
         <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D87" t="s">
         <v>54</v>
       </c>
       <c r="E87" s="2">
-        <v>0.39100000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F87">
         <f t="shared" si="21"/>
@@ -4090,7 +3890,7 @@
       </c>
       <c r="H87">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="8">
         <v>0</v>
@@ -4107,17 +3907,20 @@
         <v>49</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
       </c>
       <c r="D88" t="s">
         <v>54</v>
       </c>
       <c r="E88" s="2">
-        <v>0.79349999999999998</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="F88">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <f t="shared" si="22"/>
@@ -4127,18 +3930,85 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>92</v>
+      <c r="I88" s="8">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E89" s="2"/>
+      <c r="A89" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="8">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>86</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E90" s="2"/>
+      <c r="A90" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.79349999999999998</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
@@ -4161,19 +4031,25 @@
     <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="2"/>
     </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F97">
+  <conditionalFormatting sqref="F2:F99">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4185,7 +4061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I97">
+  <conditionalFormatting sqref="G2:I99">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4198,25 +4074,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K88">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
-      <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
+  <conditionalFormatting sqref="K2:K90">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="notes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="96">
   <si>
     <t>index</t>
   </si>
@@ -198,9 +198,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>without items 9 and 11</t>
-  </si>
-  <si>
     <t>unidimensionality</t>
   </si>
   <si>
@@ -315,13 +312,10 @@
     <t>internal consistency not applicable</t>
   </si>
   <si>
-    <t>internal consistency not applicable?</t>
-  </si>
-  <si>
-    <t>outliers; internal consistency not applicable?</t>
-  </si>
-  <si>
-    <t>outliers; internal consistency not applicable</t>
+    <t>2AFC bigram</t>
+  </si>
+  <si>
+    <t>2AFC trigram</t>
   </si>
 </sst>
 </file>
@@ -805,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -822,7 +816,7 @@
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99.109375" customWidth="1"/>
+    <col min="10" max="10" width="102.44140625" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -849,16 +843,16 @@
         <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -890,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9">
         <v>1</v>
@@ -917,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G65" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
+        <f t="shared" ref="G3:G59" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H3">
@@ -925,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" s="9">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
@@ -995,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" s="9">
         <v>1</v>
@@ -1026,11 +1020,11 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H41" si="3">IF(E6="","n.a.",IF(E6&lt;0.5,0,1))</f>
+        <f t="shared" ref="H6:H35" si="3">IF(E6="","n.a.",IF(E6&lt;0.5,0,1))</f>
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -1065,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="9">
         <v>1</v>
@@ -1100,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="9">
         <v>1</v>
@@ -1135,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -1170,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="9">
         <v>1</v>
@@ -1205,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
@@ -1240,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
@@ -1275,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -1310,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
@@ -1345,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1380,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1403,7 +1397,7 @@
         <v>0.64628690101858699</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F78" si="4">IF(E17="","n.a.",IF(E17&lt;0.7,0,1))</f>
+        <f t="shared" ref="F17:F72" si="4">IF(E17="","n.a.",IF(E17&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G17">
@@ -1415,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="9">
         <v>1</v>
@@ -1450,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" s="9">
         <v>1</v>
@@ -1485,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="9">
         <v>1</v>
@@ -1520,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" s="9">
         <v>1</v>
@@ -1555,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
@@ -1590,45 +1584,42 @@
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-9.9000000000000005E-2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23:F26" si="5">IF(E23="","n.a.",IF(E23&lt;0.7,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ref="G23:G26" si="6">IF(E23="","n.a.",IF(E23&lt;0.6,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1639,31 +1630,31 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
       </c>
       <c r="K24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1674,31 +1665,31 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="2">
-        <v>0.34599999999999997</v>
+        <v>0.623</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
       </c>
       <c r="K25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1706,51 +1697,51 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2">
-        <v>4.5999999999999999E-2</v>
+        <v>0.60115515106170703</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2">
-        <v>0.17799999999999999</v>
+        <v>0.34813515354423302</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
@@ -1764,11 +1755,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
+      <c r="I27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1776,16 +1767,16 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2">
-        <v>0.161</v>
+        <v>0.59455946919262204</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
@@ -1797,13 +1788,13 @@
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1811,37 +1802,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.91519718758964297</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29" si="7">IF(E29="","n.a.",IF(E29&lt;0.7,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29" si="8">IF(E29="","n.a.",IF(E29&lt;0.6,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29" si="9">IF(E29="","n.a.",IF(E29&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1849,21 +1837,34 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="I30" s="8"/>
-      <c r="J30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.85287703367313095</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1871,20 +1872,20 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2">
-        <v>0.623</v>
+        <v>0.85652048478375797</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
@@ -1894,11 +1895,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1</v>
+      <c r="I31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1909,13 +1910,13 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2">
-        <v>0.60115515106170703</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
@@ -1923,17 +1924,17 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1944,13 +1945,13 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E33" s="2">
-        <v>0.34813515354423302</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
@@ -1965,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1979,13 +1980,13 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2">
-        <v>0.59455946919262204</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
@@ -1997,13 +1998,13 @@
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2014,31 +2015,31 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2">
-        <v>0.91519718758964297</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2049,31 +2050,31 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2">
-        <v>0.85287703367313095</v>
+        <v>0.114</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(E36="","n.a.",IF(E36&lt;0.6,0,1))</f>
+        <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(E36="","n.a.",IF(E36&lt;0.5,0,1))</f>
+        <v>0</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2084,31 +2085,31 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2">
-        <v>0.85652048478375797</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="H37:H72" si="5">IF(E37="","n.a.",IF(E37&lt;0.5,0,1))</f>
+        <v>0</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2119,28 +2120,31 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="2">
-        <v>-1.2500000000000001E-2</v>
+        <v>0.38</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F38" si="6">IF(E38="","n.a.",IF(E38&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G38" si="7">IF(E38="","n.a.",IF(E38&lt;0.6,0,1))</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>58</v>
+        <f t="shared" ref="H38" si="8">IF(E38="","n.a.",IF(E38&lt;0.5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
       </c>
       <c r="K38" s="9">
         <v>0</v>
@@ -2154,31 +2158,18 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="I39" s="8"/>
+      <c r="J39" t="s">
+        <v>93</v>
       </c>
       <c r="K39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2189,13 +2180,13 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.23499999999999999</v>
+      <c r="E40">
+        <v>0.51300000000000001</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
@@ -2206,14 +2197,14 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
       </c>
       <c r="K40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2221,34 +2212,34 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.23599999999999999</v>
+        <v>0.89500323056132902</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2256,34 +2247,34 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E42" s="2">
-        <v>0.114</v>
+        <v>0.93655795547967802</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <f>IF(E42="","n.a.",IF(E42&lt;0.6,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="H42">
-        <f>IF(E42="","n.a.",IF(E42&lt;0.5,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2291,34 +2282,34 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2">
-        <v>-4.2000000000000003E-2</v>
+        <v>0.92148349632995297</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H78" si="10">IF(E43="","n.a.",IF(E43&lt;0.5,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2326,34 +2317,31 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E44" s="2">
-        <v>0.38</v>
+        <v>0.449746957984903</v>
       </c>
       <c r="F44">
-        <f t="shared" ref="F44" si="11">IF(E44="","n.a.",IF(E44&lt;0.7,0,1))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44" si="12">IF(E44="","n.a.",IF(E44&lt;0.6,0,1))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44" si="13">IF(E44="","n.a.",IF(E44&lt;0.5,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="K44" s="9">
         <v>0</v>
@@ -2364,21 +2352,34 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="I45" s="8"/>
-      <c r="J45" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.66586426620469397</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2386,34 +2387,34 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46">
-        <v>0.51300000000000001</v>
+        <v>28</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.74982132012043701</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I46" s="8">
-        <v>1</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2424,28 +2425,31 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.89500323056132902</v>
+        <v>54</v>
+      </c>
+      <c r="E47">
+        <v>0.61499999999999999</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="8">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>93</v>
       </c>
       <c r="K47" s="9">
         <v>1</v>
@@ -2459,28 +2463,31 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2">
-        <v>0.93655795547967802</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>93</v>
       </c>
       <c r="K48" s="9">
         <v>1</v>
@@ -2491,34 +2498,34 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="2">
-        <v>0.92148349632995297</v>
+        <v>0.221506486814086</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2526,16 +2533,16 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="2">
-        <v>0.449746957984903</v>
+        <v>0.26998210841371101</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
@@ -2546,11 +2553,11 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50" s="9">
         <v>0</v>
@@ -2561,16 +2568,16 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="2">
-        <v>0.66586426620469397</v>
+        <v>0.24716900584732801</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
@@ -2578,17 +2585,17 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2596,31 +2603,31 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="2">
-        <v>0.74982132012043701</v>
+        <v>0.63369570844167</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K52" s="9">
         <v>1</v>
@@ -2631,16 +2638,16 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53">
-        <v>0.61499999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.37972745870019098</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
@@ -2648,20 +2655,17 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I53" s="8">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="K53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2669,16 +2673,16 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E54" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.38979800343726001</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
@@ -2686,20 +2690,17 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I54" s="8">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>97</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="K54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2710,13 +2711,13 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E55" s="2">
-        <v>0.221506486814086</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
@@ -2727,14 +2728,17 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
       </c>
       <c r="K55" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2745,13 +2749,13 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E56" s="2">
-        <v>0.26998210841371101</v>
+        <v>0.252</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
@@ -2762,14 +2766,17 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
       </c>
       <c r="K56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2780,13 +2787,13 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E57" s="2">
-        <v>0.24716900584732801</v>
+        <v>0.5</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
@@ -2797,14 +2804,17 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
       </c>
       <c r="K57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2812,16 +2822,16 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="2">
-        <v>0.63369570844167</v>
+        <v>0.69599668889170196</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
@@ -2832,14 +2842,14 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>91</v>
+        <v>57</v>
+      </c>
+      <c r="K58" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2847,34 +2857,34 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="2">
-        <v>0.37972745870019098</v>
+        <v>0.73569692300554701</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2882,34 +2892,34 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="2">
-        <v>0.38979800343726001</v>
+        <v>0.68853557692638501</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="G60:G72" si="9">IF(E60="","n.a.",IF(E60&lt;0.6,0,1))</f>
+        <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2917,37 +2927,34 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E61" s="2">
-        <v>0.51900000000000002</v>
+        <v>0.744597811780768</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H61">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I61" s="8">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>95</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -2955,37 +2962,34 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E62" s="2">
-        <v>0.252</v>
+        <v>0.67472436666248803</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>95</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2993,37 +2997,34 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E63" s="2">
-        <v>0.5</v>
+        <v>0.61694815183603702</v>
       </c>
       <c r="F63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="8">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>95</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3031,34 +3032,37 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.69599668889170196</v>
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>0.61499999999999999</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F64:F66" si="10">IF(E64="","n.a.",IF(E64&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G64:G66" si="11">IF(E64="","n.a.",IF(E64&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>91</v>
+        <f t="shared" ref="H64:H66" si="12">IF(E64="","n.a.",IF(E64&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3066,34 +3070,37 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E65" s="2">
-        <v>0.73569692300554701</v>
+        <v>0.43</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3101,34 +3108,37 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E66" s="2">
-        <v>0.68853557692638501</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G78" si="14">IF(E66="","n.a.",IF(E66&lt;0.6,0,1))</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+      <c r="K66" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3136,34 +3146,37 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E67" s="2">
-        <v>0.744597811780768</v>
+        <v>0.249</v>
       </c>
       <c r="F67">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3171,34 +3184,37 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E68" s="2">
-        <v>0.67472436666248803</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K68" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3206,262 +3222,247 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E69" s="2">
-        <v>0.61694815183603702</v>
+        <v>0.51</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+      <c r="K69" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>11</v>
+      <c r="A70" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70">
-        <v>0.61499999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.85337520156869895</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F72" si="15">IF(E70="","n.a.",IF(E70&lt;0.7,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G72" si="16">IF(E70="","n.a.",IF(E70&lt;0.6,0,1))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H72" si="17">IF(E70="","n.a.",IF(E70&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>96</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>11</v>
+      <c r="A71" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E71" s="2">
-        <v>0.43</v>
+        <v>0.58452270602324097</v>
       </c>
       <c r="F71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s">
-        <v>96</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>11</v>
+      <c r="A72" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
         <v>54</v>
       </c>
       <c r="E72" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="F72">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>96</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>91</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>11</v>
+      <c r="A73" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
       <c r="E73" s="2">
-        <v>0.249</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F73:F75" si="13">IF(E73="","n.a.",IF(E73&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="G73:G75" si="14">IF(E73="","n.a.",IF(E73&lt;0.6,0,1))</f>
+        <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="H73:H75" si="15">IF(E73="","n.a.",IF(E73&lt;0.5,0,1))</f>
+        <v>1</v>
       </c>
       <c r="I73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>95</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>11</v>
+      <c r="A74" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
         <v>54</v>
       </c>
       <c r="E74" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.63</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G74">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="I74" s="8">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>95</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="K74" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>11</v>
+      <c r="A75" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D75" t="s">
         <v>54</v>
       </c>
       <c r="E75" s="2">
-        <v>0.51</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="J75" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="K75" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3469,34 +3470,37 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E76" s="2">
-        <v>0.85337520156869895</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="F76:F84" si="16">IF(E76="","n.a.",IF(E76&lt;0.7,0,1))</f>
+        <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="G76:G84" si="17">IF(E76="","n.a.",IF(E76&lt;0.6,0,1))</f>
+        <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>58</v>
+        <f t="shared" ref="H76:H84" si="18">IF(E76="","n.a.",IF(E76&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>84</v>
       </c>
       <c r="K76" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3504,31 +3508,34 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E77" s="2">
-        <v>0.58452270602324097</v>
+        <v>-0.06</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>84</v>
       </c>
       <c r="K77" s="9">
         <v>0</v>
@@ -3539,31 +3546,37 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
       </c>
       <c r="D78" t="s">
         <v>54</v>
       </c>
       <c r="E78" s="2">
-        <v>0.9</v>
+        <v>0.27</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>58</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>84</v>
       </c>
       <c r="K78" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3571,34 +3584,34 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
         <v>54</v>
       </c>
       <c r="E79" s="2">
-        <v>0.67200000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79:F81" si="18">IF(E79="","n.a.",IF(E79&lt;0.7,0,1))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:G81" si="19">IF(E79="","n.a.",IF(E79&lt;0.6,0,1))</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79:H81" si="20">IF(E79="","n.a.",IF(E79&lt;0.5,0,1))</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="I79" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K79" s="9">
         <v>0</v>
@@ -3609,34 +3622,37 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D80" t="s">
         <v>54</v>
       </c>
       <c r="E80" s="2">
-        <v>0.63</v>
+        <v>-0.03</v>
       </c>
       <c r="F80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
       <c r="I80" s="8">
         <v>1</v>
       </c>
+      <c r="J80" t="s">
+        <v>84</v>
+      </c>
       <c r="K80" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3646,32 +3662,35 @@
       <c r="B81" t="s">
         <v>74</v>
       </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
       <c r="D81" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>89</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="K81" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3679,37 +3698,37 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
         <v>54</v>
       </c>
       <c r="E82" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F90" si="21">IF(E82="","n.a.",IF(E82&lt;0.7,0,1))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82:G90" si="22">IF(E82="","n.a.",IF(E82&lt;0.6,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H90" si="23">IF(E82="","n.a.",IF(E82&lt;0.5,0,1))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I82" s="8">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K82" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3717,27 +3736,27 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D83" t="s">
         <v>54</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.06</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I83" s="8">
@@ -3755,260 +3774,50 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
         <v>54</v>
       </c>
       <c r="E84" s="2">
-        <v>0.27</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="F84">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="8">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>85</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="K84" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="8">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>85</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
-      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E86" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="8">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>85</v>
-      </c>
-      <c r="K86" s="9">
-        <v>0</v>
-      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I87" s="8">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>87</v>
-      </c>
-      <c r="K87" s="9">
-        <v>0</v>
-      </c>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" t="s">
-        <v>54</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I88" s="8">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>88</v>
-      </c>
-      <c r="K88" s="9">
-        <v>1</v>
-      </c>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="8">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>86</v>
-      </c>
-      <c r="K89" s="9">
-        <v>0</v>
-      </c>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E91" s="2"/>
@@ -4019,26 +3828,8 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I22 I25:I1048576">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
     </cfRule>
@@ -4047,30 +3838,6 @@
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F99">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I99">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
@@ -4084,7 +3851,7 @@
       <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K90">
+  <conditionalFormatting sqref="K2:K84">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4093,6 +3860,30 @@
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F22 F25:F93">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:I22 G25:I93">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reliability_testing/task_indices_psychometric_analysis_results.xlsx
+++ b/reliability_testing/task_indices_psychometric_analysis_results.xlsx
@@ -16,7 +16,7 @@
     <sheet name="notes" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indices!$A$1:$K$83</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="94">
   <si>
     <t>index</t>
   </si>
@@ -189,9 +189,6 @@
     <t>reliability 0.6 crit.</t>
   </si>
   <si>
-    <t>2AFC trigram word-nonword &amp; partword-nonword</t>
-  </si>
-  <si>
     <t>Chronbach's alpha</t>
   </si>
   <si>
@@ -204,27 +201,6 @@
     <t>n.a.</t>
   </si>
   <si>
-    <t>2AFC trigram word-partword</t>
-  </si>
-  <si>
-    <t>2AFC trigram word-nonword</t>
-  </si>
-  <si>
-    <t>2AFC trigram partword-nonword</t>
-  </si>
-  <si>
-    <t>2AFC bigram word-partword</t>
-  </si>
-  <si>
-    <t>2AFC bigram word-nonword</t>
-  </si>
-  <si>
-    <t>2AFC bigram partword-nonword</t>
-  </si>
-  <si>
-    <t>2AFC</t>
-  </si>
-  <si>
     <t>reliability 0.5 crit.</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>dichotic</t>
   </si>
   <si>
-    <t>without items, 6, 10, 11 and 16</t>
-  </si>
-  <si>
     <t>trog</t>
   </si>
   <si>
@@ -306,9 +279,6 @@
     <t>inclusion</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>internal consistency not applicable</t>
   </si>
   <si>
@@ -316,6 +286,30 @@
   </si>
   <si>
     <t>2AFC trigram</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>read_syls</t>
+  </si>
+  <si>
+    <t>DigitSpan</t>
+  </si>
+  <si>
+    <t>forward_span</t>
+  </si>
+  <si>
+    <t>backward_span</t>
+  </si>
+  <si>
+    <t>nonforced_lat_index</t>
+  </si>
+  <si>
+    <t>left_forced_left_rate</t>
+  </si>
+  <si>
+    <t>right_forced_right_rate</t>
   </si>
 </sst>
 </file>
@@ -409,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -425,11 +419,71 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -799,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -843,16 +897,16 @@
         <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -884,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="9">
         <v>1</v>
@@ -907,11 +961,11 @@
         <v>0.95620434058218484</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">IF(E3="","n.a.",IF(E3&lt;0.7,0,1))</f>
+        <f t="shared" ref="F3:F18" si="1">IF(E3="","n.a.",IF(E3&lt;0.7,0,1))</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G59" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
+        <f t="shared" ref="G3:G58" si="2">IF(E3="","n.a.",IF(E3&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H3">
@@ -919,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="9">
         <v>1</v>
@@ -954,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
@@ -989,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="9">
         <v>1</v>
@@ -1024,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -1059,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="9">
         <v>1</v>
@@ -1094,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="9">
         <v>1</v>
@@ -1129,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -1164,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="9">
         <v>1</v>
@@ -1199,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="9">
         <v>1</v>
@@ -1210,31 +1264,31 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.8070646711258681</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
       </c>
       <c r="K12" s="9">
         <v>1</v>
@@ -1245,31 +1299,31 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.7632241702921061</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
@@ -1283,17 +1337,17 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2">
-        <v>0.69112942765495244</v>
+        <v>0.8070646711258681</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -1304,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
@@ -1318,13 +1372,13 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>0.86775977746922417</v>
+        <v>0.7632241702921061</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -1339,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1353,17 +1407,17 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>0.88070057570467353</v>
+        <v>0.69112942765495244</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -1374,31 +1428,31 @@
         <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="2">
-        <v>0.64628690101858699</v>
+        <v>0.86775977746922417</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F72" si="4">IF(E17="","n.a.",IF(E17&lt;0.7,0,1))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -1409,30 +1463,30 @@
         <v>1</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2">
-        <v>0.76755785988876901</v>
+        <v>0.88070057570467353</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G18">
@@ -1444,101 +1498,71 @@
         <v>1</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.77772807971017199</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="2"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.855059098656753</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="2"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="2">
-        <v>0.849989728360527</v>
+        <v>0.64628690101858699</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="F21:F71" si="4">IF(E21="","n.a.",IF(E21&lt;0.7,0,1))</f>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -1549,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="9">
         <v>1</v>
@@ -1563,13 +1587,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="2">
-        <v>0.76134736248942503</v>
+        <v>0.76755785988876901</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
@@ -1584,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="9">
         <v>1</v>
@@ -1598,28 +1622,31 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.77772807971017199</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1630,28 +1657,28 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.855059098656753</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K24" s="9">
         <v>1</v>
@@ -1665,17 +1692,17 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2">
-        <v>0.623</v>
+        <v>0.849989728360527</v>
       </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -1685,8 +1712,8 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I25" s="8">
-        <v>1</v>
+      <c r="I25" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K25" s="9">
         <v>1</v>
@@ -1697,20 +1724,20 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="2">
-        <v>0.60115515106170703</v>
+        <v>0.76134736248942503</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -1721,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1732,34 +1759,31 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.34813515354423302</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1767,34 +1791,34 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.59455946919262204</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1802,34 +1826,34 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.91519718758964297</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1840,17 +1864,17 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="2">
-        <v>0.85287703367313095</v>
+        <v>0.60115515106170703</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -1861,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1875,31 +1899,31 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="2">
-        <v>0.85652048478375797</v>
+        <v>0.34813515354423302</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1910,13 +1934,13 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2">
-        <v>-1.2500000000000001E-2</v>
+        <v>0.59455946919262204</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
@@ -1928,13 +1952,13 @@
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1945,31 +1969,31 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2">
-        <v>0.17299999999999999</v>
+        <v>0.91519718758964297</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1980,31 +2004,31 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.85287703367313095</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2015,31 +2039,31 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.23599999999999999</v>
+        <v>0.85652048478375797</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2050,31 +2074,28 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.114</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>IF(E36="","n.a.",IF(E36&lt;0.6,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f>IF(E36="","n.a.",IF(E36&lt;0.5,0,1))</f>
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2085,31 +2106,31 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H72" si="5">IF(E37="","n.a.",IF(E37&lt;0.5,0,1))</f>
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
       </c>
       <c r="K37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2120,34 +2141,31 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38" si="6">IF(E38="","n.a.",IF(E38&lt;0.7,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="7">IF(E38="","n.a.",IF(E38&lt;0.6,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38" si="8">IF(E38="","n.a.",IF(E38&lt;0.5,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2155,18 +2173,31 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="I39" s="8"/>
-      <c r="J39" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.89500323056132902</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H71" si="5">IF(E39="","n.a.",IF(E39&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K39" s="9">
         <v>1</v>
@@ -2177,31 +2208,31 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>0.51300000000000001</v>
+        <v>28</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.93655795547967802</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I40" s="8">
-        <v>1</v>
+      <c r="I40" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K40" s="9">
         <v>1</v>
@@ -2215,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="2">
-        <v>0.89500323056132902</v>
+        <v>0.92148349632995297</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
@@ -2236,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" s="9">
         <v>1</v>
@@ -2250,31 +2281,31 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="2">
-        <v>0.93655795547967802</v>
+        <v>0.449746957984903</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2285,17 +2316,17 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="2">
-        <v>0.92148349632995297</v>
+        <v>0.66586426620469397</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -2306,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43" s="9">
         <v>1</v>
@@ -2320,31 +2351,31 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="2">
-        <v>0.449746957984903</v>
+        <v>0.74982132012043701</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2355,31 +2386,28 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.66586426620469397</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="9">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2390,28 +2418,28 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.74982132012043701</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>83</v>
       </c>
       <c r="K46" s="9">
         <v>1</v>
@@ -2425,31 +2453,28 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K47" s="9">
         <v>1</v>
@@ -2460,16 +2485,16 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E48" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.221506486814086</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
@@ -2477,20 +2502,17 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I48" s="8">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2501,13 +2523,13 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="2">
-        <v>0.221506486814086</v>
+        <v>0.26998210841371101</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
@@ -2522,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
@@ -2536,13 +2558,13 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="2">
-        <v>0.26998210841371101</v>
+        <v>0.24716900584732801</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
@@ -2557,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K50" s="9">
         <v>0</v>
@@ -2571,13 +2593,13 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="2">
-        <v>0.24716900584732801</v>
+        <v>0.63369570844167</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
@@ -2585,17 +2607,17 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2606,13 +2628,13 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
       </c>
       <c r="E52" s="2">
-        <v>0.63369570844167</v>
+        <v>0.37972745870019098</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
@@ -2620,17 +2642,17 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2641,13 +2663,13 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="2">
-        <v>0.37972745870019098</v>
+        <v>0.38979800343726001</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
@@ -2662,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K53" s="9">
         <v>0</v>
@@ -2676,31 +2698,31 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.38979800343726001</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
       </c>
       <c r="K54" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2711,31 +2733,28 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I55" s="8">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J55" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K55" s="9">
         <v>1</v>
@@ -2749,31 +2768,28 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.252</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J56" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K56" s="9">
         <v>1</v>
@@ -2784,16 +2800,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E57" s="2">
-        <v>0.5</v>
+        <v>0.69599668889170196</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
@@ -2801,17 +2817,14 @@
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I57" s="8">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>93</v>
+      <c r="I57" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K57" s="9">
         <v>1</v>
@@ -2825,17 +2838,17 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="2">
-        <v>0.69599668889170196</v>
+        <v>0.73569692300554701</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -2846,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58" s="9">
         <v>1</v>
@@ -2860,20 +2873,20 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="2">
-        <v>0.73569692300554701</v>
+        <v>0.68853557692638501</v>
       </c>
       <c r="F59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G59:G71" si="6">IF(E59="","n.a.",IF(E59&lt;0.6,0,1))</f>
         <v>1</v>
       </c>
       <c r="H59">
@@ -2881,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K59" s="9">
         <v>1</v>
@@ -2895,20 +2908,20 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
       <c r="E60" s="2">
-        <v>0.68853557692638501</v>
+        <v>0.744597811780768</v>
       </c>
       <c r="F60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G72" si="9">IF(E60="","n.a.",IF(E60&lt;0.6,0,1))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H60">
@@ -2916,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K60" s="9">
         <v>1</v>
@@ -2930,20 +2943,20 @@
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
       </c>
       <c r="E61" s="2">
-        <v>0.744597811780768</v>
+        <v>0.67472436666248803</v>
       </c>
       <c r="F61">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H61">
@@ -2951,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K61" s="9">
         <v>1</v>
@@ -2965,20 +2978,20 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="2">
-        <v>0.67472436666248803</v>
+        <v>0.61694815183603702</v>
       </c>
       <c r="F62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H62">
@@ -2986,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K62" s="9">
         <v>1</v>
@@ -2997,31 +3010,31 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.61694815183603702</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" t="s">
+        <v>83</v>
       </c>
       <c r="K63" s="9">
         <v>1</v>
@@ -3032,34 +3045,31 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ref="F64:F66" si="10">IF(E64="","n.a.",IF(E64&lt;0.7,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <f t="shared" ref="G64:G66" si="11">IF(E64="","n.a.",IF(E64&lt;0.6,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <f t="shared" ref="H64:H66" si="12">IF(E64="","n.a.",IF(E64&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J64" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K64" s="9">
         <v>1</v>
@@ -3070,34 +3080,31 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J65" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K65" s="9">
         <v>1</v>
@@ -3108,34 +3115,31 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K66" s="9">
         <v>1</v>
@@ -3146,34 +3150,31 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0.249</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K67" s="9">
         <v>1</v>
@@ -3184,72 +3185,66 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K68" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>11</v>
+      <c r="A69" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E69" s="2">
-        <v>0.51</v>
+        <v>0.85337520156869895</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>93</v>
+      <c r="I69" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="K69" s="9">
         <v>1</v>
@@ -3263,31 +3258,31 @@
         <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="2">
-        <v>0.85337520156869895</v>
+        <v>0.58452270602324097</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K70" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3295,34 +3290,34 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2">
-        <v>0.58452270602324097</v>
+        <v>0.9</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3330,31 +3325,37 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F74" si="7">IF(E72="","n.a.",IF(E72&lt;0.7,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:G74" si="8">IF(E72="","n.a.",IF(E72&lt;0.6,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H74" si="9">IF(E72="","n.a.",IF(E72&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
         <v>68</v>
       </c>
-      <c r="D72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="K72" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3362,37 +3363,34 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="2">
-        <v>0.67200000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F73">
-        <f t="shared" ref="F73:F75" si="13">IF(E73="","n.a.",IF(E73&lt;0.7,0,1))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G75" si="14">IF(E73="","n.a.",IF(E73&lt;0.6,0,1))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" ref="H73:H75" si="15">IF(E73="","n.a.",IF(E73&lt;0.5,0,1))</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I73" s="8">
         <v>1</v>
       </c>
-      <c r="J73" t="s">
-        <v>77</v>
-      </c>
       <c r="K73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3400,31 +3398,31 @@
         <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2">
-        <v>0.63</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="F74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I74" s="8">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s">
+        <v>79</v>
       </c>
       <c r="K74" s="9">
         <v>1</v>
@@ -3435,34 +3433,37 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="F75">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F75:F83" si="10">IF(E75="","n.a.",IF(E75&lt;0.7,0,1))</f>
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="G75:G83" si="11">IF(E75="","n.a.",IF(E75&lt;0.6,0,1))</f>
+        <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>90</v>
+        <f t="shared" ref="H75:H83" si="12">IF(E75="","n.a.",IF(E75&lt;0.5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K75" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3470,34 +3471,34 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
         <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ref="F76:F84" si="16">IF(E76="","n.a.",IF(E76&lt;0.7,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" ref="G76:G84" si="17">IF(E76="","n.a.",IF(E76&lt;0.6,0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f t="shared" ref="H76:H84" si="18">IF(E76="","n.a.",IF(E76&lt;0.5,0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I76" s="8">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>84</v>
       </c>
       <c r="K76" s="9">
         <v>0</v>
@@ -3508,34 +3509,34 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.06</v>
+        <v>0.27</v>
       </c>
       <c r="F77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I77" s="8">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K77" s="9">
         <v>0</v>
@@ -3546,34 +3547,34 @@
         <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K78" s="9">
         <v>0</v>
@@ -3584,34 +3585,34 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2">
-        <v>0.14000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="F79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I79" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K79" s="9">
         <v>0</v>
@@ -3622,34 +3623,34 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.03</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="I80" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K80" s="9">
         <v>0</v>
@@ -3660,37 +3661,37 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="F81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I81" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K81" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3698,37 +3699,37 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
         <v>74</v>
       </c>
-      <c r="C82" t="s">
-        <v>82</v>
-      </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" s="2">
-        <v>0.68100000000000005</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I82" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K82" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,37 +3737,31 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" s="2">
-        <v>0.39100000000000001</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="F83">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="8">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>85</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="K83" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -3774,28 +3769,31 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" t="s">
+        <v>83</v>
       </c>
       <c r="K84" s="9">
         <v>1</v>
@@ -3825,45 +3823,42 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E93" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I22 I25:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="~?">
+  <conditionalFormatting sqref="I1:I26 I29:I35 I38:I62 I69:I1048576">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K84">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="K2:K83">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22 F25:F93">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="F38:F62 F2:F26 F29:F35 F69:F92">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3874,8 +3869,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I22 G25:I93">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="G38:I62 G2:I26 G29:I35 G69:I92">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3884,6 +3879,52 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="yes">
+      <formula>NOT(ISERROR(SEARCH("yes",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:F37">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:I37">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="~?">
+      <formula>NOT(ISERROR(SEARCH("~?",K84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
